--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Edema macular diabético (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Edema macular diabético (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.968632835820892</v>
+        <v>2.913751243781091</v>
       </c>
       <c r="H2" t="n">
-        <v>1.168507936507935</v>
+        <v>1.140000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>5.56</v>
+        <v>5.451999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>12.94273658866975</v>
+        <v>12.91291542288555</v>
       </c>
       <c r="K2" t="n">
-        <v>6.619166666666665</v>
+        <v>6.552</v>
       </c>
       <c r="L2" t="n">
-        <v>20.73659606875752</v>
+        <v>20.568</v>
       </c>
       <c r="M2" t="n">
-        <v>13.4008632551528</v>
+        <v>13.19196019900497</v>
       </c>
       <c r="N2" t="n">
-        <v>7.642338919413917</v>
+        <v>7.679999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>19.37343492063493</v>
+        <v>19.35199999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>9.839262329514405</v>
+        <v>10.06129353233832</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.447742192937786</v>
+        <v>6.532000000000002</v>
       </c>
       <c r="R2" t="n">
-        <v>13.69275944055943</v>
+        <v>13.996</v>
       </c>
       <c r="S2" t="n">
-        <v>6.278734412105297</v>
+        <v>6.574945273631832</v>
       </c>
       <c r="T2" t="n">
-        <v>4.07843183095771</v>
+        <v>4.243999999999997</v>
       </c>
       <c r="U2" t="n">
-        <v>9.012502897102895</v>
+        <v>9.383999999999993</v>
       </c>
       <c r="V2" t="n">
-        <v>3.085916123910234</v>
+        <v>3.227641791044764</v>
       </c>
       <c r="W2" t="n">
-        <v>1.712902104866809</v>
+        <v>1.743999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.824754054078356</v>
+        <v>5.052</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6664894944710538</v>
+        <v>0.6588059701492525</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.37320655821303</v>
+        <v>1.407999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.01912437810945264</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03957619047619047</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6477867107464114</v>
+        <v>0.6297711442786065</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02600000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4126187080893</v>
+        <v>1.404</v>
       </c>
       <c r="P3" t="n">
-        <v>0.605056320130946</v>
+        <v>0.6042587064676603</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.513996536796538</v>
+        <v>1.524000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5017853481510184</v>
+        <v>0.4960995024875614</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.24650698914612</v>
+        <v>1.220000000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3815318644870873</v>
+        <v>0.3682388059701484</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1226666666666664</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.095611111111111</v>
+        <v>1.116000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1162939587775408</v>
+        <v>0.09510447761194019</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.578666666666666</v>
+        <v>0.4079999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -765,58 +765,58 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.00827860696517412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005714285714285715</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9466533996683245</v>
+        <v>0.9487363184079597</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2001538461538458</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1.972883790283792</v>
+        <v>1.903999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>1.062256696316397</v>
+        <v>1.053472636815919</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2470819879466936</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>2.123933333333334</v>
+        <v>2.060000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>1.004954281622191</v>
+        <v>1.033134328358208</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>2.107080519480519</v>
+        <v>2.260000000000002</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6976993761351955</v>
+        <v>0.7094726368159191</v>
       </c>
       <c r="W4" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.008</v>
       </c>
       <c r="X4" t="n">
-        <v>1.416000000000004</v>
+        <v>1.428</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.171478828081813</v>
+        <v>0.1841592039800994</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6839999999999985</v>
+        <v>0.7200000000000003</v>
       </c>
     </row>
     <row r="5">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6430855739440904</v>
+        <v>0.6447761194029848</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05485542398777693</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>1.512681082949844</v>
+        <v>1.528</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6397778854644516</v>
+        <v>0.6431840796019891</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.493028767059108</v>
+        <v>1.552</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5789084577114422</v>
+        <v>0.578228855721392</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.309583416583417</v>
+        <v>1.376</v>
       </c>
       <c r="S5" t="n">
-        <v>0.510149700989998</v>
+        <v>0.5098905472636799</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.209657538596669</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3515328106940039</v>
+        <v>0.3459104477611935</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9020542568542563</v>
+        <v>0.9119999999999997</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09506076759061831</v>
+        <v>0.09826865671641775</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4208888888888881</v>
+        <v>0.4399999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -913,76 +913,76 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.01303482587064676</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7286551054252538</v>
+        <v>0.8453134328358205</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1.696714285714286</v>
+        <v>1.848</v>
       </c>
       <c r="J6" t="n">
-        <v>2.256316333914831</v>
+        <v>2.255522388059692</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8737822510822508</v>
+        <v>0.8439999999999998</v>
       </c>
       <c r="L6" t="n">
-        <v>4.034559544159543</v>
+        <v>4.144000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>2.719570516989908</v>
+        <v>2.727482587064663</v>
       </c>
       <c r="N6" t="n">
-        <v>1.098494644244645</v>
+        <v>1.06</v>
       </c>
       <c r="O6" t="n">
-        <v>4.633059909486231</v>
+        <v>4.607999999999996</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612965530655075</v>
+        <v>2.657631840796016</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.000206663718119</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>4.612952380952378</v>
+        <v>4.599999999999996</v>
       </c>
       <c r="S6" t="n">
-        <v>2.408668941009231</v>
+        <v>2.410587064676613</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8558259664312289</v>
+        <v>0.8</v>
       </c>
       <c r="U6" t="n">
-        <v>4.159600000000002</v>
+        <v>4.216000000000003</v>
       </c>
       <c r="V6" t="n">
-        <v>1.551780151431394</v>
+        <v>1.520398009950249</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4222796992481198</v>
+        <v>0.4319999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>2.758648100048104</v>
+        <v>2.675999999999998</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3829453441528057</v>
+        <v>0.371741293532337</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9968139009139009</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.048047263681585</v>
+        <v>2.749771144278603</v>
       </c>
       <c r="K7" t="n">
-        <v>1.055866666666667</v>
+        <v>1.024</v>
       </c>
       <c r="L7" t="n">
-        <v>5.384288888888894</v>
+        <v>4.899999999999997</v>
       </c>
       <c r="M7" t="n">
-        <v>12.53768656716417</v>
+        <v>12.19791044776118</v>
       </c>
       <c r="N7" t="n">
-        <v>6.064489393939394</v>
+        <v>5.800000000000002</v>
       </c>
       <c r="O7" t="n">
-        <v>20.44677777777779</v>
+        <v>20.13999999999998</v>
       </c>
       <c r="P7" t="n">
-        <v>12.66045439469319</v>
+        <v>12.53687562189053</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.698749999999994</v>
+        <v>6.695999999999998</v>
       </c>
       <c r="R7" t="n">
-        <v>18.31728571428571</v>
+        <v>18.29199999999998</v>
       </c>
       <c r="S7" t="n">
-        <v>9.13175520485594</v>
+        <v>9.378388059701484</v>
       </c>
       <c r="T7" t="n">
-        <v>6.036542322492321</v>
+        <v>6.175999999999996</v>
       </c>
       <c r="U7" t="n">
-        <v>12.51045786435786</v>
+        <v>13.072</v>
       </c>
       <c r="V7" t="n">
-        <v>4.312711714074169</v>
+        <v>4.849174129353224</v>
       </c>
       <c r="W7" t="n">
-        <v>2.863788329753037</v>
+        <v>2.984000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>6.545963463941671</v>
+        <v>7.163999999999998</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9194552858955457</v>
+        <v>0.989273631840796</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1497555555555554</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.858607312341816</v>
+        <v>1.968</v>
       </c>
     </row>
     <row r="8">
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.98855832741049</v>
+        <v>42.07812935323378</v>
       </c>
       <c r="N8" t="n">
-        <v>26.06832431457433</v>
+        <v>26.28399999999998</v>
       </c>
       <c r="O8" t="n">
-        <v>56.1958893920894</v>
+        <v>56.97599999999997</v>
       </c>
       <c r="P8" t="n">
-        <v>19.30152935323382</v>
+        <v>19.34298507462685</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.95863888888888</v>
+        <v>13.97600000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>24.24213333333334</v>
+        <v>24.524</v>
       </c>
       <c r="S8" t="n">
-        <v>7.166362710258221</v>
+        <v>7.178308457711441</v>
       </c>
       <c r="T8" t="n">
-        <v>3.689525925925925</v>
+        <v>3.752000000000002</v>
       </c>
       <c r="U8" t="n">
-        <v>10.93273333333333</v>
+        <v>11.016</v>
       </c>
       <c r="V8" t="n">
-        <v>2.199749803890592</v>
+        <v>2.224955223880586</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5212000000000004</v>
+        <v>0.5160000000000002</v>
       </c>
       <c r="X8" t="n">
-        <v>4.561188071188075</v>
+        <v>4.587999999999997</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3033782752902143</v>
+        <v>0.3071840796019888</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.054444444444445</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="9">
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.653478220011054</v>
+        <v>1.619343283582088</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5624000000000001</v>
+        <v>0.5680000000000002</v>
       </c>
       <c r="L9" t="n">
-        <v>3.086230158730159</v>
+        <v>3.016</v>
       </c>
       <c r="M9" t="n">
-        <v>2.483128800442224</v>
+        <v>2.471999999999992</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9236640748140743</v>
+        <v>0.8639999999999998</v>
       </c>
       <c r="O9" t="n">
-        <v>4.62343013555645</v>
+        <v>4.484000000000003</v>
       </c>
       <c r="P9" t="n">
-        <v>2.648351067009267</v>
+        <v>2.630726368159197</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.026757644110276</v>
+        <v>0.8679999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>4.761780952380951</v>
+        <v>4.928</v>
       </c>
       <c r="S9" t="n">
-        <v>2.475703233830837</v>
+        <v>2.441850746268648</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8493206273258896</v>
+        <v>0.9839999999999998</v>
       </c>
       <c r="U9" t="n">
-        <v>4.315999999999999</v>
+        <v>4.247999999999998</v>
       </c>
       <c r="V9" t="n">
-        <v>1.587561772426946</v>
+        <v>1.591721393034825</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4098955722639925</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>2.873140030340035</v>
+        <v>2.823999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4089285177232932</v>
+        <v>0.4029850746268649</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.044188263588263</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.35702473347538</v>
+        <v>22.45315422885558</v>
       </c>
       <c r="K10" t="n">
-        <v>12.38153333333333</v>
+        <v>12.356</v>
       </c>
       <c r="L10" t="n">
-        <v>32.61420076960076</v>
+        <v>33.10000000000002</v>
       </c>
       <c r="M10" t="n">
-        <v>31.76986496819923</v>
+        <v>31.69317412935321</v>
       </c>
       <c r="N10" t="n">
-        <v>21.95904913419913</v>
+        <v>21.624</v>
       </c>
       <c r="O10" t="n">
-        <v>40.52361940651937</v>
+        <v>40.28800000000003</v>
       </c>
       <c r="P10" t="n">
-        <v>12.0202531153755</v>
+        <v>11.94515422885572</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.832907936507933</v>
+        <v>7.899999999999998</v>
       </c>
       <c r="R10" t="n">
-        <v>16.19807142857143</v>
+        <v>15.832</v>
       </c>
       <c r="S10" t="n">
-        <v>4.733229526968319</v>
+        <v>4.70167164179103</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9311708994709</v>
+        <v>1.947999999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>8.173611111111112</v>
+        <v>7.916000000000005</v>
       </c>
       <c r="V10" t="n">
-        <v>1.500533488402144</v>
+        <v>1.493034825870646</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2090678210678206</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>3.705254874754877</v>
+        <v>3.708</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2197027639579864</v>
+        <v>0.2198009950248741</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8437816849816837</v>
+        <v>0.8239999999999996</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.610467661691533</v>
+        <v>6.841572139303472</v>
       </c>
       <c r="H11" t="n">
-        <v>2.832000000000007</v>
+        <v>2.919999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>12.06000000000001</v>
+        <v>12.25200000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>22.43627620985965</v>
+        <v>23.2272835820894</v>
       </c>
       <c r="K11" t="n">
-        <v>12.81519841269841</v>
+        <v>12.916</v>
       </c>
       <c r="L11" t="n">
-        <v>32.75755329485328</v>
+        <v>34.312</v>
       </c>
       <c r="M11" t="n">
-        <v>16.78482745794835</v>
+        <v>17.13100497512437</v>
       </c>
       <c r="N11" t="n">
-        <v>11.82878571428572</v>
+        <v>11.948</v>
       </c>
       <c r="O11" t="n">
-        <v>22.22465714285713</v>
+        <v>22.192</v>
       </c>
       <c r="P11" t="n">
-        <v>9.803926200634992</v>
+        <v>9.646547263681587</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.032500227060523</v>
+        <v>6.267999999999995</v>
       </c>
       <c r="R11" t="n">
-        <v>13.6610261072261</v>
+        <v>13.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.090180431177438</v>
+        <v>4.947880597014923</v>
       </c>
       <c r="T11" t="n">
-        <v>2.445233867983865</v>
+        <v>2.248000000000002</v>
       </c>
       <c r="U11" t="n">
-        <v>7.988051381951383</v>
+        <v>7.776000000000005</v>
       </c>
       <c r="V11" t="n">
-        <v>1.947971645178111</v>
+        <v>1.918527363184077</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5690444444444451</v>
+        <v>0.4159999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>3.774541726791727</v>
+        <v>3.712000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3428038946680731</v>
+        <v>0.3214328358208946</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9282612202612202</v>
+        <v>0.9840000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.753447761194025</v>
+        <v>1.81070646766169</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6000000000000006</v>
+        <v>0.6239999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>3.955955555555558</v>
+        <v>3.552000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>5.832930679933651</v>
+        <v>5.8838606965174</v>
       </c>
       <c r="H12" t="n">
-        <v>2.482666666666663</v>
+        <v>2.520000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>10.24466666666666</v>
+        <v>10.272</v>
       </c>
       <c r="J12" t="n">
-        <v>6.71764481560451</v>
+        <v>6.880358208955222</v>
       </c>
       <c r="K12" t="n">
-        <v>2.912904761904762</v>
+        <v>2.927999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>11.06749629629631</v>
+        <v>11.128</v>
       </c>
       <c r="M12" t="n">
-        <v>6.341543477059144</v>
+        <v>6.3667263681592</v>
       </c>
       <c r="N12" t="n">
-        <v>3.178034981684979</v>
+        <v>3.16</v>
       </c>
       <c r="O12" t="n">
-        <v>9.846666666666675</v>
+        <v>9.839999999999998</v>
       </c>
       <c r="P12" t="n">
-        <v>5.477767556158591</v>
+        <v>5.321194029850733</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.917371929824562</v>
+        <v>2.919999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>8.617424386724387</v>
+        <v>7.976000000000002</v>
       </c>
       <c r="S12" t="n">
-        <v>4.307570652072696</v>
+        <v>4.092577114427845</v>
       </c>
       <c r="T12" t="n">
-        <v>2.259877370179413</v>
+        <v>2.224000000000001</v>
       </c>
       <c r="U12" t="n">
-        <v>6.621691866922207</v>
+        <v>6.368000000000002</v>
       </c>
       <c r="V12" t="n">
-        <v>2.188342432027821</v>
+        <v>2.325412935323369</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9353282069782076</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>3.665081465124819</v>
+        <v>3.744000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4908510085011391</v>
+        <v>0.5261691542288557</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.225143429337545</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1503,67 +1503,67 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>37.91507505010183</v>
+        <v>37.7092935323382</v>
       </c>
       <c r="H13" t="n">
-        <v>22.64599445739445</v>
+        <v>22.47600000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>53.24588700874292</v>
+        <v>52.42800000000003</v>
       </c>
       <c r="J13" t="n">
-        <v>21.51463429022452</v>
+        <v>21.2847761194029</v>
       </c>
       <c r="K13" t="n">
-        <v>15.30658854478855</v>
+        <v>15.14</v>
       </c>
       <c r="L13" t="n">
-        <v>26.49268532948533</v>
+        <v>26.76399999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>8.712113322277492</v>
+        <v>8.707980099502475</v>
       </c>
       <c r="N13" t="n">
-        <v>5.109529059829057</v>
+        <v>5.084</v>
       </c>
       <c r="O13" t="n">
-        <v>12.72840012025011</v>
+        <v>12.736</v>
       </c>
       <c r="P13" t="n">
-        <v>3.726666203365455</v>
+        <v>3.765014925373133</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.278044111444111</v>
+        <v>1.352</v>
       </c>
       <c r="R13" t="n">
-        <v>6.968560332804451</v>
+        <v>7.067999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>1.587419796704124</v>
+        <v>1.555522388059701</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2030864174428043</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="U13" t="n">
-        <v>3.843817587641116</v>
+        <v>3.775999999999998</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5592233441966018</v>
+        <v>0.5696915422885559</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.750552752802753</v>
+        <v>1.827999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.08213501114695126</v>
+        <v>0.08360199004975113</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4200237735948255</v>
+        <v>0.4199999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11.62093532338308</v>
+        <v>12.21966169154228</v>
       </c>
       <c r="H14" t="n">
-        <v>5.586666666666676</v>
+        <v>5.972</v>
       </c>
       <c r="I14" t="n">
-        <v>19.4616</v>
+        <v>20.09200000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>30.40732978507031</v>
+        <v>30.34523383084563</v>
       </c>
       <c r="K14" t="n">
-        <v>18.84287619047619</v>
+        <v>19.344</v>
       </c>
       <c r="L14" t="n">
-        <v>41.07926934486499</v>
+        <v>40.89199999999997</v>
       </c>
       <c r="M14" t="n">
-        <v>15.91901774461027</v>
+        <v>15.79046766169153</v>
       </c>
       <c r="N14" t="n">
-        <v>11.27389413919414</v>
+        <v>10.98</v>
       </c>
       <c r="O14" t="n">
-        <v>21.02595555555556</v>
+        <v>20.76</v>
       </c>
       <c r="P14" t="n">
-        <v>7.324535496653047</v>
+        <v>7.266507462686561</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.031805808080809</v>
+        <v>3.916000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>11.19175714285714</v>
+        <v>11.20799999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>3.178323503693647</v>
+        <v>3.191383084577109</v>
       </c>
       <c r="T14" t="n">
-        <v>1.067578342223078</v>
+        <v>1.156000000000001</v>
       </c>
       <c r="U14" t="n">
-        <v>5.819779220779221</v>
+        <v>5.900000000000002</v>
       </c>
       <c r="V14" t="n">
-        <v>1.163702130394345</v>
+        <v>1.162985074626865</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1910222222222218</v>
+        <v>0.188</v>
       </c>
       <c r="X14" t="n">
-        <v>2.929056084656086</v>
+        <v>2.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1872609251721192</v>
+        <v>0.1839800995024876</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.6169938558517498</v>
+        <v>0.6080000000000005</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.01902487562189052</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6439828505380736</v>
+        <v>0.6359402985074616</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01700634920634921</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.518704728604729</v>
+        <v>1.407999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0.64501734357723</v>
+        <v>0.6721393034825861</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0005333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.489057081308784</v>
+        <v>1.464</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5698160467503742</v>
+        <v>0.5808756218905466</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.399783358471596</v>
+        <v>1.416</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5660496090973698</v>
+        <v>0.5650746268656711</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.378376923076923</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4816408003825901</v>
+        <v>0.4947860696517404</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.10651391941392</v>
+        <v>1.136000000000001</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3278486131336869</v>
+        <v>0.3334527363184071</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9688913900913896</v>
+        <v>0.996</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.07807871357498222</v>
+        <v>0.08061691542288557</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.3973333333333324</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.01345273631840796</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7276507936507929</v>
+        <v>0.8496517412935316</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02711111111111111</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>1.716714285714286</v>
+        <v>1.856</v>
       </c>
       <c r="J16" t="n">
-        <v>2.252139764381546</v>
+        <v>2.263940298507455</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8647155844155842</v>
+        <v>0.8479999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>4.066326455026454</v>
+        <v>4.092000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>2.745023835534273</v>
+        <v>2.726626865671628</v>
       </c>
       <c r="N16" t="n">
-        <v>1.098454168054168</v>
+        <v>1.088</v>
       </c>
       <c r="O16" t="n">
-        <v>4.654960438586758</v>
+        <v>4.631999999999998</v>
       </c>
       <c r="P16" t="n">
-        <v>2.658567472162986</v>
+        <v>2.667980099502481</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9298047619047617</v>
+        <v>1.008</v>
       </c>
       <c r="R16" t="n">
-        <v>4.676999999999997</v>
+        <v>4.599999999999996</v>
       </c>
       <c r="S16" t="n">
-        <v>2.399897962568104</v>
+        <v>2.404616915422883</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9423593073593071</v>
+        <v>0.8439999999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>4.219600000000001</v>
+        <v>4.232000000000002</v>
       </c>
       <c r="V16" t="n">
-        <v>1.568464194180611</v>
+        <v>1.514905472636815</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4289093288777493</v>
+        <v>0.4359999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>2.697212650312653</v>
+        <v>2.655999999999999</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3822337147098328</v>
+        <v>0.3742487562189041</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.9994299626299624</v>
+        <v>0.9919999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.511306799336644</v>
+        <v>1.817233830845769</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4924444444444447</v>
+        <v>0.6079999999999994</v>
       </c>
       <c r="F17" t="n">
-        <v>3.021111111111118</v>
+        <v>3.419999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>5.671318739635139</v>
+        <v>5.742965174129336</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46533333333333</v>
+        <v>2.520000000000002</v>
       </c>
       <c r="I17" t="n">
-        <v>9.623599999999994</v>
+        <v>9.723999999999995</v>
       </c>
       <c r="J17" t="n">
-        <v>6.699018613282784</v>
+        <v>6.674407960198996</v>
       </c>
       <c r="K17" t="n">
-        <v>3.113666666666667</v>
+        <v>3.144000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>10.85820793650795</v>
+        <v>11.09599999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>6.301025669272677</v>
+        <v>6.1827263681592</v>
       </c>
       <c r="N17" t="n">
-        <v>3.152836568986567</v>
+        <v>3.160000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>9.592000000000011</v>
+        <v>9.587999999999996</v>
       </c>
       <c r="P17" t="n">
-        <v>5.577014322327748</v>
+        <v>5.193213930348253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.964717961570594</v>
+        <v>2.919999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>8.693403174603173</v>
+        <v>8.159999999999998</v>
       </c>
       <c r="S17" t="n">
-        <v>4.322490768661469</v>
+        <v>3.960995024875608</v>
       </c>
       <c r="T17" t="n">
-        <v>2.249180881482924</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>6.599525200255541</v>
+        <v>6.084000000000002</v>
       </c>
       <c r="V17" t="n">
-        <v>2.207165607396766</v>
+        <v>2.326606965174117</v>
       </c>
       <c r="W17" t="n">
-        <v>1.023074158172981</v>
+        <v>1.084</v>
       </c>
       <c r="X17" t="n">
-        <v>3.784517153184035</v>
+        <v>3.728000000000001</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.4875667354220899</v>
+        <v>0.5040796019900489</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.20625987400399</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1927,58 +1927,58 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.00827860696517412</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0005714285714285715</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9443781094527358</v>
+        <v>0.9487363184079597</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2001538461538458</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>1.902385185185188</v>
+        <v>1.903999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>1.053444997236041</v>
+        <v>1.053472636815919</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1802105593752653</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="R18" t="n">
-        <v>2.101933333333335</v>
+        <v>2.060000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>1.024144580129653</v>
+        <v>1.033134328358208</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="U18" t="n">
-        <v>2.232000000000001</v>
+        <v>2.260000000000002</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7018674247808561</v>
+        <v>0.7094726368159191</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.008</v>
       </c>
       <c r="X18" t="n">
-        <v>1.416000000000004</v>
+        <v>1.428</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1846061359867328</v>
+        <v>0.1841592039800994</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.7253333333333315</v>
+        <v>0.7200000000000003</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.614791597567714</v>
+        <v>7.500159203980089</v>
       </c>
       <c r="E19" t="n">
-        <v>3.048800000000003</v>
+        <v>3.023999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>12.78666666666668</v>
+        <v>12.89199999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>23.12627263681577</v>
+        <v>23.64708457711427</v>
       </c>
       <c r="H19" t="n">
-        <v>12.71544444444444</v>
+        <v>13.144</v>
       </c>
       <c r="I19" t="n">
-        <v>34.14559999999998</v>
+        <v>34.35199999999998</v>
       </c>
       <c r="J19" t="n">
-        <v>17.36278075172478</v>
+        <v>17.23146268656715</v>
       </c>
       <c r="K19" t="n">
-        <v>11.72911746031746</v>
+        <v>11.668</v>
       </c>
       <c r="L19" t="n">
-        <v>22.22718354978355</v>
+        <v>22.04400000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>10.03442177209191</v>
+        <v>9.717990049751235</v>
       </c>
       <c r="N19" t="n">
-        <v>5.872607020757023</v>
+        <v>5.940000000000005</v>
       </c>
       <c r="O19" t="n">
-        <v>13.71837032967032</v>
+        <v>13.54800000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>5.712750030215606</v>
+        <v>5.151104477611934</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.604039532689532</v>
+        <v>2.495999999999998</v>
       </c>
       <c r="R19" t="n">
-        <v>8.807969563769561</v>
+        <v>8.247999999999996</v>
       </c>
       <c r="S19" t="n">
-        <v>2.630920155714922</v>
+        <v>2.557990049751232</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6858477041477035</v>
+        <v>0.6440000000000005</v>
       </c>
       <c r="U19" t="n">
-        <v>5.116743589743585</v>
+        <v>5.103999999999997</v>
       </c>
       <c r="V19" t="n">
-        <v>1.033124765671034</v>
+        <v>1.007999999999998</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1857333333333329</v>
+        <v>0.18</v>
       </c>
       <c r="X19" t="n">
-        <v>2.524542874119346</v>
+        <v>2.440000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1619272091921344</v>
+        <v>0.1593432835820892</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6509483405483397</v>
+        <v>0.6560000000000005</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6871387033088525</v>
+        <v>0.7009552238805969</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05813862433862434</v>
+        <v>0.016</v>
       </c>
       <c r="F20" t="n">
-        <v>1.529496296296298</v>
+        <v>1.516</v>
       </c>
       <c r="G20" t="n">
-        <v>2.228060009476422</v>
+        <v>2.268139303482583</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8018630998630996</v>
+        <v>0.784</v>
       </c>
       <c r="I20" t="n">
-        <v>4.091114285714285</v>
+        <v>4.052</v>
       </c>
       <c r="J20" t="n">
-        <v>2.697873371442706</v>
+        <v>2.746786069651738</v>
       </c>
       <c r="K20" t="n">
-        <v>1.006001302618949</v>
+        <v>1.02</v>
       </c>
       <c r="L20" t="n">
-        <v>4.774219360378184</v>
+        <v>4.836000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>2.739765925230094</v>
+        <v>2.829432835820882</v>
       </c>
       <c r="N20" t="n">
-        <v>1.037593101343102</v>
+        <v>1.044</v>
       </c>
       <c r="O20" t="n">
-        <v>4.82887407777408</v>
+        <v>5.003999999999998</v>
       </c>
       <c r="P20" t="n">
-        <v>2.575013598673294</v>
+        <v>2.586766169154223</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9075285714285711</v>
+        <v>1.016</v>
       </c>
       <c r="R20" t="n">
-        <v>4.647199999999999</v>
+        <v>4.495999999999998</v>
       </c>
       <c r="S20" t="n">
-        <v>2.13460696517412</v>
+        <v>2.125930348258692</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9375138047138045</v>
+        <v>0.9159999999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>3.875523809523811</v>
+        <v>3.816000000000002</v>
       </c>
       <c r="V20" t="n">
-        <v>1.340799090259288</v>
+        <v>1.380378109452735</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3664928786612992</v>
+        <v>0.3759999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>2.498837710437711</v>
+        <v>2.567999999999999</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3297313642134526</v>
+        <v>0.3285572139303473</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.9269596662596664</v>
+        <v>0.8759999999999997</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.034547263681592</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9577611703387814</v>
+        <v>0.9062885572139301</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2134169793169791</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>2.07378547008547</v>
+        <v>1.98</v>
       </c>
       <c r="J21" t="n">
-        <v>1.102551832219742</v>
+        <v>1.084855721393033</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2426021264014399</v>
+        <v>0.2279999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>2.26820123386532</v>
+        <v>2.495999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>1.108125416828941</v>
+        <v>1.108955223880596</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2149047619047615</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>2.201301172901168</v>
+        <v>2.208000000000002</v>
       </c>
       <c r="P21" t="n">
-        <v>1.086317232021708</v>
+        <v>1.082945273631839</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3173079049605361</v>
+        <v>0.356</v>
       </c>
       <c r="R21" t="n">
-        <v>2.211746031746033</v>
+        <v>2.200000000000002</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9224569893346007</v>
+        <v>0.9264875621890534</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="U21" t="n">
-        <v>1.755999999999999</v>
+        <v>1.803999999999998</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6025442222969577</v>
+        <v>0.5630845771144264</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.342260317460319</v>
+        <v>1.392</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1604200426439232</v>
+        <v>0.1690547263681592</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5999999999999991</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="22">
@@ -2259,58 +2259,58 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.12395080048404</v>
+        <v>42.41096517412922</v>
       </c>
       <c r="K22" t="n">
-        <v>25.15828747860327</v>
+        <v>26.64</v>
       </c>
       <c r="L22" t="n">
-        <v>53.33489583149641</v>
+        <v>57.40800000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>19.59163667377397</v>
+        <v>19.62001990049749</v>
       </c>
       <c r="N22" t="n">
-        <v>14.55290476190476</v>
+        <v>14.51199999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>24.38781587301586</v>
+        <v>24.40000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>7.662938687514801</v>
+        <v>7.663940298507461</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.19499603174603</v>
+        <v>4.288000000000002</v>
       </c>
       <c r="R22" t="n">
-        <v>11.6932</v>
+        <v>11.66000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>2.97118484019107</v>
+        <v>3.007303482587047</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7967046120546109</v>
+        <v>0.8119999999999998</v>
       </c>
       <c r="U22" t="n">
-        <v>5.995742712842713</v>
+        <v>5.984000000000001</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9974051821220962</v>
+        <v>1.012437810945273</v>
       </c>
       <c r="W22" t="n">
-        <v>0.003842246642246643</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.679195719095722</v>
+        <v>2.739999999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1403867798170234</v>
+        <v>0.1447164179104477</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.6032251082251077</v>
+        <v>0.6080000000000005</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.352404414435757</v>
+        <v>0.4004378109452732</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000911111111111111</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8742079365079353</v>
+        <v>0.9879999999999994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6641497146303107</v>
+        <v>0.667741293532338</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01953007733007733</v>
+        <v>0.044</v>
       </c>
       <c r="I23" t="n">
-        <v>1.541704728604729</v>
+        <v>1.599999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6454418334972865</v>
+        <v>0.6567363184079589</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001235294117647059</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.530541759854638</v>
+        <v>1.552</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5851727789623304</v>
+        <v>0.5881393034825857</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.410470992466552</v>
+        <v>1.396</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5182868988391368</v>
+        <v>0.5200597014925366</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.304409956709957</v>
+        <v>1.312</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4459619402985064</v>
+        <v>0.4433432835820887</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.110250634389765</v>
+        <v>1.088</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3024476495680465</v>
+        <v>0.2985472636815906</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.8875594035594029</v>
+        <v>0.9079999999999998</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0646605733956479</v>
+        <v>0.06216915422885567</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.2666666666666666</v>
+        <v>0.2479999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2407,76 +2407,76 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.01321393034825868</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7273721866856186</v>
+        <v>0.8665074626865663</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07524444444444447</v>
+        <v>0.08399999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>1.723571428571429</v>
+        <v>1.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.252622351446223</v>
+        <v>2.260099502487556</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8517155844155841</v>
+        <v>0.8439999999999998</v>
       </c>
       <c r="L24" t="n">
-        <v>4.085439153439152</v>
+        <v>4.136000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>2.771093353744089</v>
+        <v>2.7233830845771</v>
       </c>
       <c r="N24" t="n">
-        <v>1.084204168054168</v>
+        <v>1.068000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>4.717734786461106</v>
+        <v>4.639999999999998</v>
       </c>
       <c r="P24" t="n">
-        <v>2.658867969675425</v>
+        <v>2.670189054726363</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.027771428571429</v>
+        <v>1.036</v>
       </c>
       <c r="R24" t="n">
-        <v>4.653999999999996</v>
+        <v>4.603999999999997</v>
       </c>
       <c r="S24" t="n">
-        <v>2.386410447761187</v>
+        <v>2.386328358208952</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8721370851370845</v>
+        <v>0.8</v>
       </c>
       <c r="U24" t="n">
-        <v>4.120800000000002</v>
+        <v>4.184000000000004</v>
       </c>
       <c r="V24" t="n">
-        <v>1.569170109050705</v>
+        <v>1.522487562189054</v>
       </c>
       <c r="W24" t="n">
-        <v>0.4037093288777496</v>
+        <v>0.4319999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>2.720869060569064</v>
+        <v>2.695999999999998</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3746384631951782</v>
+        <v>0.3690945273631827</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9273859991859988</v>
+        <v>0.9679999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6655824567637996</v>
+        <v>0.6554427860696515</v>
       </c>
       <c r="K25" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.509575661375661</v>
+        <v>1.507999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>2.221965174129347</v>
+        <v>2.214129353233828</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6658872294372297</v>
+        <v>0.7440000000000002</v>
       </c>
       <c r="O25" t="n">
-        <v>4.001111111111111</v>
+        <v>3.972</v>
       </c>
       <c r="P25" t="n">
-        <v>2.608487541977084</v>
+        <v>2.590268656716408</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.011756663718119</v>
+        <v>1.004</v>
       </c>
       <c r="R25" t="n">
-        <v>5.016752380952379</v>
+        <v>4.956</v>
       </c>
       <c r="S25" t="n">
-        <v>2.416938474295182</v>
+        <v>2.42019900497512</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9672709549709549</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="U25" t="n">
-        <v>4.442466666666669</v>
+        <v>4.408000000000003</v>
       </c>
       <c r="V25" t="n">
-        <v>1.654234954855353</v>
+        <v>1.644199004975123</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4553661375661376</v>
+        <v>0.4559999999999997</v>
       </c>
       <c r="X25" t="n">
-        <v>3.055650793650793</v>
+        <v>3.143999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4353860186800474</v>
+        <v>0.4466467661691531</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.069184607984608</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="26">
@@ -2573,76 +2573,76 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.03263681592039792</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9491769485903806</v>
+        <v>0.8886368159203961</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1523262145262143</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>2.06978547008547</v>
+        <v>1.956</v>
       </c>
       <c r="J26" t="n">
-        <v>1.09720031599136</v>
+        <v>1.070686567164177</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2165735549728685</v>
+        <v>0.2319999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>2.200168909544761</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="M26" t="n">
-        <v>1.122185267458591</v>
+        <v>1.150805970149253</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2289341269841266</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>2.39084866201337</v>
+        <v>2.487999999999999</v>
       </c>
       <c r="P26" t="n">
-        <v>1.096087948958009</v>
+        <v>1.093691542288557</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2030819900557891</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>2.120516483516484</v>
+        <v>2.300000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9533442753073338</v>
+        <v>0.9559601990049741</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1997333333333329</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="U26" t="n">
-        <v>1.959416233766234</v>
+        <v>1.956</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6177582782796701</v>
+        <v>0.6121194029850733</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.41446666666667</v>
+        <v>1.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.1549468214483139</v>
+        <v>0.1527164179104477</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.5999999999999991</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>36.74964510779424</v>
+        <v>36.81992039800989</v>
       </c>
       <c r="E27" t="n">
-        <v>22.48800000000004</v>
+        <v>22.468</v>
       </c>
       <c r="F27" t="n">
-        <v>52.08399999999989</v>
+        <v>51.93599999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>21.31596882255383</v>
+        <v>21.32051741293524</v>
       </c>
       <c r="H27" t="n">
-        <v>14.65306233766235</v>
+        <v>14.63600000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>27.43200000000001</v>
+        <v>27.25200000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>9.016024350469866</v>
+        <v>9.073791044776115</v>
       </c>
       <c r="K27" t="n">
-        <v>5.038419047619048</v>
+        <v>5.108000000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>13.03434256854257</v>
+        <v>13.132</v>
       </c>
       <c r="M27" t="n">
-        <v>4.034233799257674</v>
+        <v>4.108935323383082</v>
       </c>
       <c r="N27" t="n">
-        <v>1.351543650793651</v>
+        <v>1.395999999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>7.317732275132274</v>
+        <v>7.664000000000003</v>
       </c>
       <c r="P27" t="n">
-        <v>1.882004624921787</v>
+        <v>1.872398009950248</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2978742940753775</v>
+        <v>0.2519999999999998</v>
       </c>
       <c r="R27" t="n">
-        <v>4.171068242868241</v>
+        <v>4.235999999999996</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8624401722649466</v>
+        <v>0.8668656716417896</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01082980097729199</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2.734471428571429</v>
+        <v>2.607999999999998</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3192517117064959</v>
+        <v>0.3072835820895518</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1.335657169146643</v>
+        <v>1.264000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05028648613467924</v>
+        <v>0.04704477611940287</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.32127501017501</v>
+        <v>0.3600000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -2748,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.1165373134328356</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="J28" t="n">
-        <v>8.945063349917053</v>
+        <v>9.017194029850723</v>
       </c>
       <c r="K28" t="n">
-        <v>4.071999999999997</v>
+        <v>4.155999999999997</v>
       </c>
       <c r="L28" t="n">
-        <v>15.35648783068784</v>
+        <v>15.44000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>13.46647396351575</v>
+        <v>13.4592039800995</v>
       </c>
       <c r="N28" t="n">
-        <v>6.886609265734263</v>
+        <v>6.884000000000003</v>
       </c>
       <c r="O28" t="n">
-        <v>20.1739777777778</v>
+        <v>20.08799999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>12.07667350073916</v>
+        <v>11.55245771144278</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.132285714285714</v>
+        <v>6.731999999999999</v>
       </c>
       <c r="R28" t="n">
-        <v>16.28372603507603</v>
+        <v>15.58000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>7.769517821421893</v>
+        <v>7.947741293532326</v>
       </c>
       <c r="T28" t="n">
-        <v>4.848468821918823</v>
+        <v>5.075999999999996</v>
       </c>
       <c r="U28" t="n">
-        <v>10.76390043290043</v>
+        <v>10.96</v>
       </c>
       <c r="V28" t="n">
-        <v>3.758371641478132</v>
+        <v>3.948676616915418</v>
       </c>
       <c r="W28" t="n">
-        <v>2.01825498531969</v>
+        <v>2.004</v>
       </c>
       <c r="X28" t="n">
-        <v>5.593272640977573</v>
+        <v>5.840000000000003</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7866650054482689</v>
+        <v>0.784358208955223</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.1012896825396825</v>
+        <v>0.052</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.712674843297273</v>
+        <v>1.643999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7062934449924492</v>
+        <v>0.6545273631840784</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03660952380952383</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.556142328042328</v>
+        <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6658810579138928</v>
+        <v>0.6751044776119395</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01751640211640211</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.550704728604728</v>
+        <v>1.599999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6352087518762769</v>
+        <v>0.620218905472636</v>
       </c>
       <c r="K29" t="n">
-        <v>0.008735294117647062</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.536360278373157</v>
+        <v>1.464</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5667833451788667</v>
+        <v>0.5639601990049743</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.316626442368548</v>
+        <v>1.264</v>
       </c>
       <c r="P29" t="n">
-        <v>0.5148938640132663</v>
+        <v>0.5126766169154222</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.346405194805194</v>
+        <v>1.364</v>
       </c>
       <c r="S29" t="n">
-        <v>0.4164303482587048</v>
+        <v>0.4124577114427849</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.040261745500876</v>
+        <v>1.036</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2763681907920706</v>
+        <v>0.2771144278606949</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.811809523809522</v>
+        <v>0.8159999999999998</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.06730583195135424</v>
+        <v>0.07613930348258702</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.2813333333333332</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="30">
@@ -2914,67 +2914,67 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.764589718076269</v>
+        <v>3.71500497512436</v>
       </c>
       <c r="H30" t="n">
-        <v>1.63333333333333</v>
+        <v>1.568</v>
       </c>
       <c r="I30" t="n">
-        <v>6.638133333333338</v>
+        <v>6.644000000000005</v>
       </c>
       <c r="J30" t="n">
-        <v>6.453401903182486</v>
+        <v>6.42740298507461</v>
       </c>
       <c r="K30" t="n">
-        <v>2.959380952380952</v>
+        <v>2.956</v>
       </c>
       <c r="L30" t="n">
-        <v>10.61858571428572</v>
+        <v>10.49999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>6.606739232685488</v>
+        <v>6.642726368159201</v>
       </c>
       <c r="N30" t="n">
-        <v>3.196753235653234</v>
+        <v>3.307999999999998</v>
       </c>
       <c r="O30" t="n">
-        <v>10.78651910638382</v>
+        <v>10.672</v>
       </c>
       <c r="P30" t="n">
-        <v>5.882152678167599</v>
+        <v>5.790567164179103</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.966234628237262</v>
+        <v>2.807999999999999</v>
       </c>
       <c r="R30" t="n">
-        <v>9.229711255411255</v>
+        <v>9.147999999999994</v>
       </c>
       <c r="S30" t="n">
-        <v>4.640015181230661</v>
+        <v>4.507721393034811</v>
       </c>
       <c r="T30" t="n">
-        <v>2.336909892667817</v>
+        <v>2.208000000000002</v>
       </c>
       <c r="U30" t="n">
-        <v>7.117279024209363</v>
+        <v>6.944000000000001</v>
       </c>
       <c r="V30" t="n">
-        <v>2.663574926780831</v>
+        <v>2.663820895522378</v>
       </c>
       <c r="W30" t="n">
-        <v>1.123871433229079</v>
+        <v>1.188000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.418003821380294</v>
+        <v>4.271999999999998</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.5896281707198431</v>
+        <v>0.6122189054726364</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.411453468818763</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.40085074712614</v>
+        <v>28.92441791044772</v>
       </c>
       <c r="K31" t="n">
-        <v>16.57163650793651</v>
+        <v>15.69600000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>46.7358488589872</v>
+        <v>42.70800000000003</v>
       </c>
       <c r="M31" t="n">
-        <v>23.02250431967142</v>
+        <v>23.06493532338301</v>
       </c>
       <c r="N31" t="n">
-        <v>15.64651991341992</v>
+        <v>16.14400000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>29.2089152958153</v>
+        <v>29.32400000000002</v>
       </c>
       <c r="P31" t="n">
-        <v>10.77394707128139</v>
+        <v>10.75800995024875</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.394055555555553</v>
+        <v>7.247999999999996</v>
       </c>
       <c r="R31" t="n">
-        <v>14.81861587301587</v>
+        <v>14.67600000000001</v>
       </c>
       <c r="S31" t="n">
-        <v>4.693748874674243</v>
+        <v>4.722786069651738</v>
       </c>
       <c r="T31" t="n">
-        <v>1.877821978021979</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>7.863066666666669</v>
+        <v>7.840000000000006</v>
       </c>
       <c r="V31" t="n">
-        <v>1.679715795481468</v>
+        <v>1.664537313432834</v>
       </c>
       <c r="W31" t="n">
-        <v>0.3550507936507932</v>
+        <v>0.36</v>
       </c>
       <c r="X31" t="n">
-        <v>3.515063044363045</v>
+        <v>3.603999999999998</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2452744333886111</v>
+        <v>0.2450945273631828</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.9211561327561331</v>
+        <v>0.8719999999999996</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>18.20252113638158</v>
+        <v>18.24342288557213</v>
       </c>
       <c r="K32" t="n">
-        <v>9.219999999999995</v>
+        <v>9.287999999999995</v>
       </c>
       <c r="L32" t="n">
-        <v>28.58663674843676</v>
+        <v>28.264</v>
       </c>
       <c r="M32" t="n">
-        <v>31.99986368098452</v>
+        <v>32.09984079601986</v>
       </c>
       <c r="N32" t="n">
-        <v>21.49069761904762</v>
+        <v>21.38800000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>40.96842379472382</v>
+        <v>41.27999999999998</v>
       </c>
       <c r="P32" t="n">
-        <v>13.22533714759535</v>
+        <v>13.18338308457711</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.212817460317456</v>
+        <v>9.167999999999999</v>
       </c>
       <c r="R32" t="n">
-        <v>17.79876666666667</v>
+        <v>17.568</v>
       </c>
       <c r="S32" t="n">
-        <v>5.332119095001179</v>
+        <v>5.322029850746262</v>
       </c>
       <c r="T32" t="n">
-        <v>2.491924867724868</v>
+        <v>2.484000000000001</v>
       </c>
       <c r="U32" t="n">
-        <v>8.585466666666672</v>
+        <v>8.784000000000006</v>
       </c>
       <c r="V32" t="n">
-        <v>1.758689883674461</v>
+        <v>1.752537313432833</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2763630591630593</v>
+        <v>0.2759999999999999</v>
       </c>
       <c r="X32" t="n">
-        <v>3.887232027232027</v>
+        <v>3.859999999999999</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2677656163626302</v>
+        <v>0.2683980099502477</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.9357485292485289</v>
+        <v>0.9719999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>11.60153233830845</v>
+        <v>12.19810945273631</v>
       </c>
       <c r="H33" t="n">
-        <v>5.651999999999998</v>
+        <v>6.056000000000003</v>
       </c>
       <c r="I33" t="n">
-        <v>19.16400000000001</v>
+        <v>19.64000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>30.44928998407527</v>
+        <v>30.36346268656702</v>
       </c>
       <c r="K33" t="n">
-        <v>18.83637619047619</v>
+        <v>19.49200000000001</v>
       </c>
       <c r="L33" t="n">
-        <v>41.1675930779946</v>
+        <v>41.23199999999997</v>
       </c>
       <c r="M33" t="n">
-        <v>15.86088341625206</v>
+        <v>15.81518407960196</v>
       </c>
       <c r="N33" t="n">
-        <v>11.29456080586081</v>
+        <v>11.10799999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>20.98422222222222</v>
+        <v>20.776</v>
       </c>
       <c r="P33" t="n">
-        <v>7.325070820036129</v>
+        <v>7.281174129353222</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.089305808080805</v>
+        <v>4.035999999999998</v>
       </c>
       <c r="R33" t="n">
-        <v>11.19175714285714</v>
+        <v>11.148</v>
       </c>
       <c r="S33" t="n">
-        <v>3.19336413387607</v>
+        <v>3.203840796019893</v>
       </c>
       <c r="T33" t="n">
-        <v>1.071578342223078</v>
+        <v>1.156000000000001</v>
       </c>
       <c r="U33" t="n">
-        <v>5.869779220779218</v>
+        <v>6.003999999999998</v>
       </c>
       <c r="V33" t="n">
-        <v>1.167995994407612</v>
+        <v>1.158786069651741</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1899999999999996</v>
+        <v>0.188</v>
       </c>
       <c r="X33" t="n">
-        <v>2.92818201058201</v>
+        <v>2.935999999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1830944243429319</v>
+        <v>0.1796616915422886</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.6162033796612736</v>
+        <v>0.6080000000000005</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.595024875621879</v>
+        <v>8.449094527363163</v>
       </c>
       <c r="E34" t="n">
-        <v>3.879111111111111</v>
+        <v>3.812000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>14.87600000000003</v>
+        <v>14.85999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>13.53022786069651</v>
+        <v>13.64117412935323</v>
       </c>
       <c r="H34" t="n">
-        <v>6.815666666666679</v>
+        <v>6.984000000000004</v>
       </c>
       <c r="I34" t="n">
-        <v>21.68933333333333</v>
+        <v>22.08000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>11.87806942272763</v>
+        <v>11.84165174129353</v>
       </c>
       <c r="K34" t="n">
-        <v>7.23565974025974</v>
+        <v>7.220000000000002</v>
       </c>
       <c r="L34" t="n">
-        <v>17.11693251563251</v>
+        <v>16.928</v>
       </c>
       <c r="M34" t="n">
-        <v>8.430295139023491</v>
+        <v>8.681014925373123</v>
       </c>
       <c r="N34" t="n">
-        <v>4.994923809523809</v>
+        <v>5.183999999999997</v>
       </c>
       <c r="O34" t="n">
-        <v>11.86194579124579</v>
+        <v>12.108</v>
       </c>
       <c r="P34" t="n">
-        <v>5.822176765523023</v>
+        <v>5.935920398009935</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.512715219867851</v>
+        <v>3.476000000000003</v>
       </c>
       <c r="R34" t="n">
-        <v>8.106098701298704</v>
+        <v>8.612000000000002</v>
       </c>
       <c r="S34" t="n">
-        <v>3.647614604107876</v>
+        <v>3.698945273631824</v>
       </c>
       <c r="T34" t="n">
-        <v>1.713486868686867</v>
+        <v>1.707999999999999</v>
       </c>
       <c r="U34" t="n">
-        <v>5.740000000000001</v>
+        <v>5.860000000000006</v>
       </c>
       <c r="V34" t="n">
-        <v>2.001283042532116</v>
+        <v>1.829950248756216</v>
       </c>
       <c r="W34" t="n">
-        <v>0.6293761727161731</v>
+        <v>0.4319999999999999</v>
       </c>
       <c r="X34" t="n">
-        <v>3.560112441555795</v>
+        <v>3.511999999999999</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3952518881217948</v>
+        <v>0.355223880597014</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.064224276543317</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="35">
@@ -3320,76 +3320,76 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.01321393034825868</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="G35" t="n">
-        <v>1.658395609255309</v>
+        <v>1.615383084577112</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4136571428571419</v>
+        <v>0.396</v>
       </c>
       <c r="I35" t="n">
-        <v>3.20987619047619</v>
+        <v>3.131999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>2.565563269742305</v>
+        <v>2.509154228855718</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9801753285929755</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>4.788946525805347</v>
+        <v>4.696000000000002</v>
       </c>
       <c r="M35" t="n">
-        <v>2.78627740821919</v>
+        <v>2.748616915422878</v>
       </c>
       <c r="N35" t="n">
-        <v>1.211159435009436</v>
+        <v>1.228000000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>4.896549734476051</v>
+        <v>4.804000000000003</v>
       </c>
       <c r="P35" t="n">
-        <v>2.646371878701722</v>
+        <v>2.650487562189046</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.031771428571429</v>
+        <v>1.124000000000001</v>
       </c>
       <c r="R35" t="n">
-        <v>4.573199999999997</v>
+        <v>4.567999999999997</v>
       </c>
       <c r="S35" t="n">
-        <v>2.192396683250413</v>
+        <v>2.193890547263677</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8328989898989894</v>
+        <v>0.7040000000000003</v>
       </c>
       <c r="U35" t="n">
-        <v>3.882038095238098</v>
+        <v>3.916000000000003</v>
       </c>
       <c r="V35" t="n">
-        <v>1.425675124470148</v>
+        <v>1.426407960199005</v>
       </c>
       <c r="W35" t="n">
-        <v>0.371428376496797</v>
+        <v>0.396</v>
       </c>
       <c r="X35" t="n">
-        <v>2.642671706071708</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.3687483369863951</v>
+        <v>0.3636815920397995</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.8884758759758754</v>
+        <v>0.8799999999999996</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.04396268656716</v>
+        <v>2.80543283582089</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9918666666666668</v>
+        <v>0.96</v>
       </c>
       <c r="L36" t="n">
-        <v>5.553333333333341</v>
+        <v>5.179999999999996</v>
       </c>
       <c r="M36" t="n">
-        <v>12.71873631840795</v>
+        <v>12.45345273631839</v>
       </c>
       <c r="N36" t="n">
-        <v>6.131489393939396</v>
+        <v>5.995999999999997</v>
       </c>
       <c r="O36" t="n">
-        <v>20.43611111111112</v>
+        <v>20.25599999999998</v>
       </c>
       <c r="P36" t="n">
-        <v>12.71541956882255</v>
+        <v>12.65657711442785</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.964749999999999</v>
+        <v>7.039999999999996</v>
       </c>
       <c r="R36" t="n">
-        <v>18.33078571428571</v>
+        <v>18.35199999999999</v>
       </c>
       <c r="S36" t="n">
-        <v>9.151374749987426</v>
+        <v>9.364039800995018</v>
       </c>
       <c r="T36" t="n">
-        <v>6.043075655825654</v>
+        <v>6.215999999999995</v>
       </c>
       <c r="U36" t="n">
-        <v>12.49445786435787</v>
+        <v>12.76400000000001</v>
       </c>
       <c r="V36" t="n">
-        <v>4.306961796992908</v>
+        <v>4.826626865671638</v>
       </c>
       <c r="W36" t="n">
-        <v>2.750270869435579</v>
+        <v>2.852</v>
       </c>
       <c r="X36" t="n">
-        <v>6.542585686163893</v>
+        <v>6.992000000000004</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.9194552858955457</v>
+        <v>0.9725771144278604</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1895531746031743</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.794581674592339</v>
+        <v>1.875999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4216729132117183</v>
+        <v>0.5191442786069649</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03443492063492065</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>1.000985714285714</v>
+        <v>1.184</v>
       </c>
       <c r="G37" t="n">
-        <v>1.087978548814369</v>
+        <v>1.08294527363184</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2278127465127464</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>2.22867205017205</v>
+        <v>2.232000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>1.12750448561941</v>
+        <v>1.14286567164179</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2434910152903288</v>
+        <v>0.2479999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>2.272808071472158</v>
+        <v>2.288000000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>1.114347001399868</v>
+        <v>1.137751243781094</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2133928571428567</v>
+        <v>0.2</v>
       </c>
       <c r="O37" t="n">
-        <v>2.217507599807595</v>
+        <v>2.272000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>1.031871223966746</v>
+        <v>1.045134328358208</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2187246029984021</v>
+        <v>0.3119999999999999</v>
       </c>
       <c r="R37" t="n">
-        <v>2.113460317460318</v>
+        <v>2.128000000000001</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9317047507081087</v>
+        <v>0.9158407960198995</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1973333333333329</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="U37" t="n">
-        <v>1.774964285714285</v>
+        <v>1.724</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5910404001379118</v>
+        <v>0.6035422885572137</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.325000000000001</v>
+        <v>1.292</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1517386045960672</v>
+        <v>0.1512636815920397</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.5999999999999991</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>11.83653067993368</v>
+        <v>11.63355223880597</v>
       </c>
       <c r="E38" t="n">
-        <v>5.801333333333335</v>
+        <v>5.68</v>
       </c>
       <c r="F38" t="n">
-        <v>19.20633333333334</v>
+        <v>18.968</v>
       </c>
       <c r="G38" t="n">
-        <v>30.34650673903208</v>
+        <v>30.07166169154226</v>
       </c>
       <c r="H38" t="n">
-        <v>18.89966984126985</v>
+        <v>19.06799999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>41.26305555555555</v>
+        <v>40.47999999999998</v>
       </c>
       <c r="J38" t="n">
-        <v>16.12260947642738</v>
+        <v>16.10031840796019</v>
       </c>
       <c r="K38" t="n">
-        <v>11.49172380952381</v>
+        <v>11.532</v>
       </c>
       <c r="L38" t="n">
-        <v>21.31848249158249</v>
+        <v>21.28800000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>7.348275148069172</v>
+        <v>7.486089552238796</v>
       </c>
       <c r="N38" t="n">
-        <v>4.18625238095238</v>
+        <v>4.176000000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>11.21136613756614</v>
+        <v>11.016</v>
       </c>
       <c r="P38" t="n">
-        <v>3.285616994034149</v>
+        <v>3.558606965174119</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.110392207792208</v>
+        <v>1.244000000000001</v>
       </c>
       <c r="R38" t="n">
-        <v>6.358327350427352</v>
+        <v>6.547999999999997</v>
       </c>
       <c r="S38" t="n">
-        <v>1.504346502557696</v>
+        <v>1.662746268656715</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1725948140177753</v>
+        <v>0.2319999999999998</v>
       </c>
       <c r="U38" t="n">
-        <v>3.670806637806639</v>
+        <v>3.872000000000002</v>
       </c>
       <c r="V38" t="n">
-        <v>0.55982742990867</v>
+        <v>0.6085174129353222</v>
       </c>
       <c r="W38" t="n">
-        <v>0.004000000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="X38" t="n">
-        <v>1.907589388389389</v>
+        <v>1.911999999999999</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1153548911287716</v>
+        <v>0.09568159203980089</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.5431960092539038</v>
+        <v>0.5760000000000003</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>3.472073797678264</v>
+        <v>3.355781094527356</v>
       </c>
       <c r="E39" t="n">
-        <v>1.387666666666666</v>
+        <v>1.376000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>6.447999999999989</v>
+        <v>6.096000000000005</v>
       </c>
       <c r="G39" t="n">
-        <v>6.285877943615251</v>
+        <v>6.263641791044769</v>
       </c>
       <c r="H39" t="n">
-        <v>2.826666666666665</v>
+        <v>2.904</v>
       </c>
       <c r="I39" t="n">
-        <v>10.816</v>
+        <v>10.944</v>
       </c>
       <c r="J39" t="n">
-        <v>6.69091649688067</v>
+        <v>6.685253731343278</v>
       </c>
       <c r="K39" t="n">
-        <v>3.166666666666667</v>
+        <v>3.168000000000001</v>
       </c>
       <c r="L39" t="n">
-        <v>10.95284074074074</v>
+        <v>10.968</v>
       </c>
       <c r="M39" t="n">
-        <v>5.896563847429511</v>
+        <v>5.951601990049743</v>
       </c>
       <c r="N39" t="n">
-        <v>3.038345238095237</v>
+        <v>3.031999999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>9.548000000000011</v>
+        <v>9.423999999999996</v>
       </c>
       <c r="P39" t="n">
-        <v>5.077572636815912</v>
+        <v>4.997373134328353</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.674705263157893</v>
+        <v>2.663999999999998</v>
       </c>
       <c r="R39" t="n">
-        <v>7.916698701298703</v>
+        <v>7.800000000000006</v>
       </c>
       <c r="S39" t="n">
-        <v>3.614361583496649</v>
+        <v>3.672039800995017</v>
       </c>
       <c r="T39" t="n">
-        <v>1.682051948051946</v>
+        <v>1.759999999999999</v>
       </c>
       <c r="U39" t="n">
-        <v>5.696000000000001</v>
+        <v>5.791999999999999</v>
       </c>
       <c r="V39" t="n">
-        <v>2.031585874691664</v>
+        <v>2.166606965174118</v>
       </c>
       <c r="W39" t="n">
-        <v>0.7635822140822145</v>
+        <v>0.9679999999999999</v>
       </c>
       <c r="X39" t="n">
-        <v>3.541445774889128</v>
+        <v>3.599999999999998</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.4686356863026079</v>
+        <v>0.4756218905472627</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.208556127750244</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3753,58 +3753,58 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9673617660946011</v>
+        <v>0.9131542288557206</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1555351933345069</v>
+        <v>0.18</v>
       </c>
       <c r="L40" t="n">
-        <v>1.965716203839735</v>
+        <v>1.843999999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>1.095570619764399</v>
+        <v>1.125114427860696</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2041038461538458</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>2.19884789698319</v>
+        <v>2.188000000000002</v>
       </c>
       <c r="P40" t="n">
-        <v>1.083238488054071</v>
+        <v>1.090726368159203</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2209671526056576</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="R40" t="n">
-        <v>2.044860927960928</v>
+        <v>2.048</v>
       </c>
       <c r="S40" t="n">
-        <v>1.007350262686456</v>
+        <v>1.017014925373133</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2193333333333329</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="U40" t="n">
-        <v>1.990295399045399</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6637035529423575</v>
+        <v>0.6642786069651726</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.476121164021164</v>
+        <v>1.444</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.1761636403121476</v>
+        <v>0.1806169154228855</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.6184444444444434</v>
+        <v>0.6320000000000005</v>
       </c>
     </row>
     <row r="41">
@@ -3836,58 +3836,58 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08658706467661639</v>
+        <v>0.1149054726368152</v>
       </c>
       <c r="K41" t="n">
-        <v>0.024</v>
+        <v>0.048</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="M41" t="n">
-        <v>8.937197346600323</v>
+        <v>9.279641791044767</v>
       </c>
       <c r="N41" t="n">
-        <v>4.288999999999997</v>
+        <v>4.372000000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>15.188</v>
+        <v>15.53600000000001</v>
       </c>
       <c r="P41" t="n">
-        <v>13.24671144278605</v>
+        <v>13.37211940298506</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.330616666666673</v>
+        <v>7.403999999999996</v>
       </c>
       <c r="R41" t="n">
-        <v>20.89668888888889</v>
+        <v>20.72800000000001</v>
       </c>
       <c r="S41" t="n">
-        <v>10.74901965963831</v>
+        <v>10.6198407960199</v>
       </c>
       <c r="T41" t="n">
-        <v>6.756680423280425</v>
+        <v>6.852000000000001</v>
       </c>
       <c r="U41" t="n">
-        <v>15.16201587301587</v>
+        <v>15.016</v>
       </c>
       <c r="V41" t="n">
-        <v>5.460964938351514</v>
+        <v>5.600597014925354</v>
       </c>
       <c r="W41" t="n">
-        <v>3.253001779701777</v>
+        <v>3.255999999999999</v>
       </c>
       <c r="X41" t="n">
-        <v>8.114303656006079</v>
+        <v>8.339999999999996</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.117125123825869</v>
+        <v>1.155542288557214</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.3624444444444439</v>
+        <v>0.3759999999999999</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.063248071971601</v>
+        <v>2.192000000000002</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>18.61169751243779</v>
+        <v>18.20495522388059</v>
       </c>
       <c r="H42" t="n">
-        <v>9.069666666666679</v>
+        <v>8.983999999999996</v>
       </c>
       <c r="I42" t="n">
-        <v>28.91186666666666</v>
+        <v>28.448</v>
       </c>
       <c r="J42" t="n">
-        <v>21.42487707253891</v>
+        <v>21.293054726368</v>
       </c>
       <c r="K42" t="n">
-        <v>12.70575555555555</v>
+        <v>12.99599999999999</v>
       </c>
       <c r="L42" t="n">
-        <v>29.37952249972249</v>
+        <v>29.14</v>
       </c>
       <c r="M42" t="n">
-        <v>13.24160514096185</v>
+        <v>13.42732338308457</v>
       </c>
       <c r="N42" t="n">
-        <v>9.144087518037518</v>
+        <v>9.648000000000001</v>
       </c>
       <c r="O42" t="n">
-        <v>17.20503625263626</v>
+        <v>17.50399999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>7.556349366830042</v>
+        <v>7.204139303482577</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.148575504560798</v>
+        <v>4.092</v>
       </c>
       <c r="R42" t="n">
-        <v>10.67460143190143</v>
+        <v>10.508</v>
       </c>
       <c r="S42" t="n">
-        <v>3.653483013503895</v>
+        <v>3.616477611940285</v>
       </c>
       <c r="T42" t="n">
-        <v>1.394499639249642</v>
+        <v>1.4</v>
       </c>
       <c r="U42" t="n">
-        <v>6.157798268398267</v>
+        <v>6.204</v>
       </c>
       <c r="V42" t="n">
-        <v>1.440268711553785</v>
+        <v>1.434845771144277</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1963999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X42" t="n">
-        <v>3.2993003296268</v>
+        <v>3.384000000000001</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.228145119639895</v>
+        <v>0.2298905472636809</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.7332257575757567</v>
+        <v>0.7240000000000002</v>
       </c>
     </row>
     <row r="43">
@@ -3993,67 +3993,67 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.764589718076269</v>
+        <v>3.714308457711425</v>
       </c>
       <c r="H43" t="n">
-        <v>1.63333333333333</v>
+        <v>1.572</v>
       </c>
       <c r="I43" t="n">
-        <v>6.630133333333338</v>
+        <v>6.644000000000005</v>
       </c>
       <c r="J43" t="n">
-        <v>6.397748503514162</v>
+        <v>6.432815920397994</v>
       </c>
       <c r="K43" t="n">
-        <v>2.959380952380952</v>
+        <v>2.968</v>
       </c>
       <c r="L43" t="n">
-        <v>10.51141904761905</v>
+        <v>10.48</v>
       </c>
       <c r="M43" t="n">
-        <v>6.594029448274211</v>
+        <v>6.644776119402983</v>
       </c>
       <c r="N43" t="n">
-        <v>3.23193736263736</v>
+        <v>3.315999999999999</v>
       </c>
       <c r="O43" t="n">
-        <v>10.75108841855313</v>
+        <v>10.66</v>
       </c>
       <c r="P43" t="n">
-        <v>5.962645215481033</v>
+        <v>5.796398009950248</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.15805396825397</v>
+        <v>2.816</v>
       </c>
       <c r="R43" t="n">
-        <v>9.373717748917748</v>
+        <v>9.139999999999993</v>
       </c>
       <c r="S43" t="n">
-        <v>4.717223968773386</v>
+        <v>4.512199004975109</v>
       </c>
       <c r="T43" t="n">
-        <v>2.374909572726321</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="U43" t="n">
-        <v>7.214256132756131</v>
+        <v>6.952000000000002</v>
       </c>
       <c r="V43" t="n">
-        <v>2.686260406889445</v>
+        <v>2.66710447761193</v>
       </c>
       <c r="W43" t="n">
-        <v>1.131560322117968</v>
+        <v>1.192000000000001</v>
       </c>
       <c r="X43" t="n">
-        <v>4.433598182574656</v>
+        <v>4.275999999999999</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.5889150695589808</v>
+        <v>0.6121194029850742</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.406464579929874</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="44">
@@ -4085,58 +4085,58 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.1331144278606964</v>
       </c>
       <c r="K44" t="n">
         <v>0.06</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="M44" t="n">
-        <v>18.1814328358209</v>
+        <v>18.27789054726369</v>
       </c>
       <c r="N44" t="n">
-        <v>9.114166666666655</v>
+        <v>9.204000000000002</v>
       </c>
       <c r="O44" t="n">
-        <v>28.42814285714284</v>
+        <v>28.63199999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>20.73230137347437</v>
+        <v>20.53528358208941</v>
       </c>
       <c r="Q44" t="n">
-        <v>12.71423333333335</v>
+        <v>12.7</v>
       </c>
       <c r="R44" t="n">
-        <v>28.2011991008991</v>
+        <v>27.58399999999999</v>
       </c>
       <c r="S44" t="n">
-        <v>12.01506065308377</v>
+        <v>11.95323383084576</v>
       </c>
       <c r="T44" t="n">
-        <v>8.413596344396341</v>
+        <v>8.732000000000005</v>
       </c>
       <c r="U44" t="n">
-        <v>15.75449523809524</v>
+        <v>15.59599999999999</v>
       </c>
       <c r="V44" t="n">
-        <v>4.991421617677353</v>
+        <v>4.90415920398009</v>
       </c>
       <c r="W44" t="n">
-        <v>2.836875069375071</v>
+        <v>2.823999999999999</v>
       </c>
       <c r="X44" t="n">
-        <v>7.606748100450522</v>
+        <v>7.516000000000004</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.8358628879412459</v>
+        <v>0.8230845771144266</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.1374999999999998</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.922527080327082</v>
+        <v>1.916</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>17.46610945273632</v>
+        <v>17.80616915422884</v>
       </c>
       <c r="E45" t="n">
-        <v>8.764444444444447</v>
+        <v>9.031999999999995</v>
       </c>
       <c r="F45" t="n">
-        <v>27.97066666666665</v>
+        <v>28.332</v>
       </c>
       <c r="G45" t="n">
-        <v>21.38402985074624</v>
+        <v>21.20833830845769</v>
       </c>
       <c r="H45" t="n">
-        <v>13.20004444444447</v>
+        <v>13.108</v>
       </c>
       <c r="I45" t="n">
-        <v>28.96493333333332</v>
+        <v>28.80399999999998</v>
       </c>
       <c r="J45" t="n">
-        <v>13.17565380241647</v>
+        <v>13.46260696517411</v>
       </c>
       <c r="K45" t="n">
-        <v>9.114666666666659</v>
+        <v>9.263999999999992</v>
       </c>
       <c r="L45" t="n">
-        <v>17.2074505050505</v>
+        <v>17.264</v>
       </c>
       <c r="M45" t="n">
-        <v>7.822709353664568</v>
+        <v>7.680477611940288</v>
       </c>
       <c r="N45" t="n">
-        <v>4.98530793650794</v>
+        <v>4.519999999999997</v>
       </c>
       <c r="O45" t="n">
-        <v>11.08264575054574</v>
+        <v>10.92800000000001</v>
       </c>
       <c r="P45" t="n">
-        <v>4.190113764510772</v>
+        <v>4.067422885572135</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.800691425241424</v>
+        <v>1.692</v>
       </c>
       <c r="R45" t="n">
-        <v>7.049566666666667</v>
+        <v>7.008000000000002</v>
       </c>
       <c r="S45" t="n">
-        <v>2.137254424845462</v>
+        <v>2.057850746268652</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6830096089096086</v>
+        <v>0.4839999999999998</v>
       </c>
       <c r="U45" t="n">
-        <v>4.308410256410253</v>
+        <v>4.259999999999997</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9182547111815753</v>
+        <v>0.8405373134328346</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0164</v>
+        <v>0.016</v>
       </c>
       <c r="X45" t="n">
-        <v>2.398489947089947</v>
+        <v>2.052</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.158025870646766</v>
+        <v>0.1477611940298507</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.6875136844636834</v>
+        <v>0.6120000000000005</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94941509121062</v>
+        <v>11.92821890547264</v>
       </c>
       <c r="K46" t="n">
-        <v>5.7548</v>
+        <v>5.684000000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>20.08046084656085</v>
+        <v>19.844</v>
       </c>
       <c r="M46" t="n">
-        <v>29.67178171049503</v>
+        <v>29.85044776119391</v>
       </c>
       <c r="N46" t="n">
-        <v>18.20385311355312</v>
+        <v>18.51200000000001</v>
       </c>
       <c r="O46" t="n">
-        <v>40.23599572649574</v>
+        <v>39.90399999999999</v>
       </c>
       <c r="P46" t="n">
-        <v>15.57782132369304</v>
+        <v>15.60262686567164</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.0825024975025</v>
+        <v>11.056</v>
       </c>
       <c r="R46" t="n">
-        <v>20.46602828282828</v>
+        <v>20.49600000000001</v>
       </c>
       <c r="S46" t="n">
-        <v>6.853664439706221</v>
+        <v>6.881213930348252</v>
       </c>
       <c r="T46" t="n">
-        <v>3.77601904761905</v>
+        <v>3.756</v>
       </c>
       <c r="U46" t="n">
-        <v>10.03281904761905</v>
+        <v>10.00800000000001</v>
       </c>
       <c r="V46" t="n">
-        <v>2.427071617860665</v>
+        <v>2.423701492537309</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7809301587301573</v>
+        <v>0.7879999999999999</v>
       </c>
       <c r="X46" t="n">
-        <v>4.369070166870165</v>
+        <v>4.452000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3838422885572129</v>
+        <v>0.3797810945273619</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.154612987012986</v>
+        <v>1.180000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>22.69974626865663</v>
+        <v>22.6783880597014</v>
       </c>
       <c r="H47" t="n">
-        <v>12.20933333333336</v>
+        <v>12.164</v>
       </c>
       <c r="I47" t="n">
-        <v>32.75533333333331</v>
+        <v>32.72799999999998</v>
       </c>
       <c r="J47" t="n">
-        <v>33.91863255751674</v>
+        <v>32.22863681592028</v>
       </c>
       <c r="K47" t="n">
-        <v>23.21846330277909</v>
+        <v>22.02399999999998</v>
       </c>
       <c r="L47" t="n">
-        <v>41.49912514578922</v>
+        <v>40.77599999999996</v>
       </c>
       <c r="M47" t="n">
-        <v>12.12310348258706</v>
+        <v>12.10312437810945</v>
       </c>
       <c r="N47" t="n">
-        <v>7.656354761904762</v>
+        <v>7.351999999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>16.50413333333332</v>
+        <v>16.57600000000001</v>
       </c>
       <c r="P47" t="n">
-        <v>4.973484643162245</v>
+        <v>4.946467661691532</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.875949999999999</v>
+        <v>1.771999999999999</v>
       </c>
       <c r="R47" t="n">
-        <v>8.398220634920634</v>
+        <v>8.267999999999994</v>
       </c>
       <c r="S47" t="n">
-        <v>2.064465328535467</v>
+        <v>2.06887562189053</v>
       </c>
       <c r="T47" t="n">
-        <v>0.3716591778591779</v>
+        <v>0.2599999999999999</v>
       </c>
       <c r="U47" t="n">
-        <v>4.603212942612941</v>
+        <v>4.599999999999997</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6758788115287845</v>
+        <v>0.6755422885572123</v>
       </c>
       <c r="W47" t="n">
-        <v>0.002170370370370371</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>1.989797883597884</v>
+        <v>2.008</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.1073520132292716</v>
+        <v>0.1049950248756218</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.5760006919006914</v>
+        <v>0.5920000000000004</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.698200663349911</v>
+        <v>2.064159203980095</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5666666666666673</v>
+        <v>0.7119999999999996</v>
       </c>
       <c r="F48" t="n">
-        <v>3.61995555555556</v>
+        <v>3.888000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>5.879159535655044</v>
+        <v>5.97659701492536</v>
       </c>
       <c r="H48" t="n">
-        <v>2.519999999999997</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>10.24466666666666</v>
+        <v>10.276</v>
       </c>
       <c r="J48" t="n">
-        <v>6.72683818210534</v>
+        <v>6.86557213930348</v>
       </c>
       <c r="K48" t="n">
-        <v>3.077038095238096</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>10.97930317460318</v>
+        <v>11.044</v>
       </c>
       <c r="M48" t="n">
-        <v>6.361059231619674</v>
+        <v>6.31912437810945</v>
       </c>
       <c r="N48" t="n">
-        <v>3.306804822954823</v>
+        <v>3.140000000000001</v>
       </c>
       <c r="O48" t="n">
-        <v>9.812666666666667</v>
+        <v>9.856</v>
       </c>
       <c r="P48" t="n">
-        <v>5.474478998944663</v>
+        <v>5.261751243781082</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.871871929824564</v>
+        <v>2.879999999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>8.675391053391053</v>
+        <v>7.924000000000003</v>
       </c>
       <c r="S48" t="n">
-        <v>4.307181537041789</v>
+        <v>4.023144278606953</v>
       </c>
       <c r="T48" t="n">
-        <v>2.248380555882599</v>
+        <v>2.176</v>
       </c>
       <c r="U48" t="n">
-        <v>6.630191866922207</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="V48" t="n">
-        <v>2.205949686998756</v>
+        <v>2.295562189054713</v>
       </c>
       <c r="W48" t="n">
-        <v>0.9802111026011023</v>
+        <v>0.9679999999999999</v>
       </c>
       <c r="X48" t="n">
-        <v>3.677624322267676</v>
+        <v>3.692000000000001</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.4880642478599009</v>
+        <v>0.5227860696517412</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.207005905750022</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4302140965446922</v>
+        <v>0.4572338308457695</v>
       </c>
       <c r="K49" t="n">
-        <v>0.02814285714285714</v>
+        <v>0.012</v>
       </c>
       <c r="L49" t="n">
-        <v>1.259981921781924</v>
+        <v>1.392</v>
       </c>
       <c r="M49" t="n">
-        <v>1.039152684628803</v>
+        <v>1.029014925373134</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2143333333333329</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O49" t="n">
-        <v>2.135196674131968</v>
+        <v>2.04</v>
       </c>
       <c r="P49" t="n">
-        <v>1.099460736839007</v>
+        <v>1.100796019900497</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2510887721625713</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="R49" t="n">
-        <v>2.160666666666667</v>
+        <v>2.176000000000001</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9637479548505662</v>
+        <v>0.9574925373134334</v>
       </c>
       <c r="T49" t="n">
-        <v>0.2733333333333333</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="U49" t="n">
-        <v>1.999508241758242</v>
+        <v>2.008</v>
       </c>
       <c r="V49" t="n">
-        <v>0.7096118850193471</v>
+        <v>0.7233631840796008</v>
       </c>
       <c r="W49" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
       <c r="X49" t="n">
-        <v>1.549515343915342</v>
+        <v>1.6</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.183039890016009</v>
+        <v>0.1779701492537312</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.6913333333333317</v>
+        <v>0.6160000000000005</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4354063571033711</v>
+        <v>0.481791044776119</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04725714285714288</v>
+        <v>0.032</v>
       </c>
       <c r="F50" t="n">
-        <v>1.016652380952381</v>
+        <v>1.1</v>
       </c>
       <c r="G50" t="n">
-        <v>1.084436260257155</v>
+        <v>1.072537313432836</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2459534872534871</v>
+        <v>0.2319999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>2.22467205017205</v>
+        <v>2.196000000000002</v>
       </c>
       <c r="J50" t="n">
-        <v>1.128340910637179</v>
+        <v>1.130666666666666</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2379799041792177</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>2.350753993306315</v>
+        <v>2.240000000000002</v>
       </c>
       <c r="M50" t="n">
-        <v>1.105389191938357</v>
+        <v>1.12604975124378</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2001428571428568</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O50" t="n">
-        <v>2.214396488696484</v>
+        <v>2.272000000000001</v>
       </c>
       <c r="P50" t="n">
-        <v>1.027522965260278</v>
+        <v>1.044975124378108</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.3233584859584855</v>
+        <v>0.324</v>
       </c>
       <c r="R50" t="n">
-        <v>2.113460317460318</v>
+        <v>2.136000000000001</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9052220529056347</v>
+        <v>0.9068457711442777</v>
       </c>
       <c r="T50" t="n">
-        <v>0.1973333333333329</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="U50" t="n">
-        <v>1.727999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5771448581269467</v>
+        <v>0.6060298507462684</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>1.321666666666668</v>
+        <v>1.288</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.1603079601990048</v>
+        <v>0.154049751243781</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.5999999999999991</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.01884577114427856</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M51" t="n">
-        <v>0.6542621682353018</v>
+        <v>0.6307661691542283</v>
       </c>
       <c r="N51" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="O51" t="n">
-        <v>1.41239200407436</v>
+        <v>1.412</v>
       </c>
       <c r="P51" t="n">
-        <v>0.6018303626169289</v>
+        <v>0.6053333333333319</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>1.512666666666667</v>
+        <v>1.524000000000001</v>
       </c>
       <c r="S51" t="n">
-        <v>0.5034783022118829</v>
+        <v>0.4970149253731335</v>
       </c>
       <c r="T51" t="n">
-        <v>0.001333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1.202504761904763</v>
+        <v>1.224000000000001</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3721043354655283</v>
+        <v>0.3678009950248747</v>
       </c>
       <c r="W51" t="n">
-        <v>0.005333333333333334</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>1.109022222222221</v>
+        <v>1.120000000000001</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.09259642295239295</v>
+        <v>0.09357213930348247</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.4066666666666657</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>29.24458960751785</v>
+        <v>29.12169154228841</v>
       </c>
       <c r="N52" t="n">
-        <v>16.43778644688643</v>
+        <v>16.412</v>
       </c>
       <c r="O52" t="n">
-        <v>42.73144920634916</v>
+        <v>42.96000000000002</v>
       </c>
       <c r="P52" t="n">
-        <v>21.78065607963065</v>
+        <v>22.30109452736313</v>
       </c>
       <c r="Q52" t="n">
-        <v>15.48687063492064</v>
+        <v>15.62000000000001</v>
       </c>
       <c r="R52" t="n">
-        <v>28.30590386280386</v>
+        <v>28.55999999999998</v>
       </c>
       <c r="S52" t="n">
-        <v>9.911433333333326</v>
+        <v>9.83538308457711</v>
       </c>
       <c r="T52" t="n">
-        <v>6.324003367003376</v>
+        <v>6.423999999999999</v>
       </c>
       <c r="U52" t="n">
-        <v>13.7154</v>
+        <v>13.74</v>
       </c>
       <c r="V52" t="n">
-        <v>3.420825138616671</v>
+        <v>3.42724378109452</v>
       </c>
       <c r="W52" t="n">
-        <v>1.332177777777779</v>
+        <v>1.344</v>
       </c>
       <c r="X52" t="n">
-        <v>5.866531216931208</v>
+        <v>5.796000000000005</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.5165245163073513</v>
+        <v>0.5196815920397999</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.372839971139971</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3.33131923714758</v>
+        <v>3.38515422885571</v>
       </c>
       <c r="E53" t="n">
-        <v>1.283111111111113</v>
+        <v>1.303999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>5.764666666666661</v>
+        <v>5.924000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>6.27035555555555</v>
+        <v>6.30985074626865</v>
       </c>
       <c r="H53" t="n">
-        <v>2.817333333333332</v>
+        <v>2.904</v>
       </c>
       <c r="I53" t="n">
-        <v>10.03693333333333</v>
+        <v>10.588</v>
       </c>
       <c r="J53" t="n">
-        <v>6.676777856747998</v>
+        <v>6.675960199004964</v>
       </c>
       <c r="K53" t="n">
-        <v>3.267733333333335</v>
+        <v>3.296000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>10.74297777777778</v>
+        <v>10.82400000000001</v>
       </c>
       <c r="M53" t="n">
-        <v>5.954214641080306</v>
+        <v>5.950805970149244</v>
       </c>
       <c r="N53" t="n">
-        <v>3.104552380952379</v>
+        <v>3.032</v>
       </c>
       <c r="O53" t="n">
-        <v>9.526666666666673</v>
+        <v>9.556000000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>5.089461857379759</v>
+        <v>4.948437810945266</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.68837192982456</v>
+        <v>2.663999999999998</v>
       </c>
       <c r="R53" t="n">
-        <v>7.996698701298705</v>
+        <v>7.784000000000003</v>
       </c>
       <c r="S53" t="n">
-        <v>3.67217698269115</v>
+        <v>3.634189054726363</v>
       </c>
       <c r="T53" t="n">
-        <v>1.803318614718617</v>
+        <v>1.775999999999999</v>
       </c>
       <c r="U53" t="n">
-        <v>5.737333333333337</v>
+        <v>5.780000000000002</v>
       </c>
       <c r="V53" t="n">
-        <v>2.050311758739438</v>
+        <v>2.15518407960198</v>
       </c>
       <c r="W53" t="n">
-        <v>0.8616790106190103</v>
+        <v>0.9239999999999998</v>
       </c>
       <c r="X53" t="n">
-        <v>3.568248949492303</v>
+        <v>3.528000000000001</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.4663178311340064</v>
+        <v>0.4811940298507454</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.191501937496054</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -4897,76 +4897,76 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.02031840796019896</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6439828505380736</v>
+        <v>0.6362388059701481</v>
       </c>
       <c r="H54" t="n">
-        <v>0.006220634920634922</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.518704728604729</v>
+        <v>1.407999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6472406636610419</v>
+        <v>0.6715223880597005</v>
       </c>
       <c r="K54" t="n">
-        <v>0.005268627450980393</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1.510455139068018</v>
+        <v>1.46</v>
       </c>
       <c r="M54" t="n">
-        <v>0.5833854378899147</v>
+        <v>0.5813731343283576</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.405278680109023</v>
+        <v>1.412</v>
       </c>
       <c r="P54" t="n">
-        <v>0.5653829424307031</v>
+        <v>0.5649154228855715</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1.351986879786879</v>
+        <v>1.4</v>
       </c>
       <c r="S54" t="n">
-        <v>0.4907172414097773</v>
+        <v>0.4942487562189046</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.129695078834209</v>
+        <v>1.136000000000001</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3266408574289163</v>
+        <v>0.3333930348258698</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9400016354016349</v>
+        <v>0.996</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07878195458493965</v>
+        <v>0.08103482587064675</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.3906666666666657</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="55">
@@ -4980,76 +4980,76 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.05496517412935319</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9577611703387814</v>
+        <v>0.925651741293532</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2044407888407886</v>
+        <v>0.192</v>
       </c>
       <c r="I55" t="n">
-        <v>2.077785470085471</v>
+        <v>1.976</v>
       </c>
       <c r="J55" t="n">
-        <v>1.10110247187859</v>
+        <v>1.110766169154228</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2363799041792177</v>
+        <v>0.336</v>
       </c>
       <c r="L55" t="n">
-        <v>2.271341404805491</v>
+        <v>2.296000000000001</v>
       </c>
       <c r="M55" t="n">
-        <v>1.115267754775845</v>
+        <v>1.11347263681592</v>
       </c>
       <c r="N55" t="n">
-        <v>0.2281547619047615</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="O55" t="n">
-        <v>2.201301172901168</v>
+        <v>2.208000000000002</v>
       </c>
       <c r="P55" t="n">
-        <v>1.090658254183626</v>
+        <v>1.114169154228855</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.2144922797660789</v>
+        <v>0.2479999999999999</v>
       </c>
       <c r="R55" t="n">
-        <v>2.211746031746033</v>
+        <v>2.196000000000002</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9454407532351549</v>
+        <v>0.951044776119401</v>
       </c>
       <c r="T55" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="U55" t="n">
-        <v>1.838630952380951</v>
+        <v>1.807999999999998</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5967713011882164</v>
+        <v>0.5850746268656709</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>1.365593650793653</v>
+        <v>1.392</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.1579231580194266</v>
+        <v>0.1600796019900496</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.5999999999999991</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>31.48313148628747</v>
+        <v>29.18865671641783</v>
       </c>
       <c r="K56" t="n">
-        <v>16.75920793650793</v>
+        <v>16.35599999999999</v>
       </c>
       <c r="L56" t="n">
-        <v>46.61346367380202</v>
+        <v>43.04800000000002</v>
       </c>
       <c r="M56" t="n">
-        <v>22.89853085366813</v>
+        <v>22.87518407960196</v>
       </c>
       <c r="N56" t="n">
-        <v>16.09968917748919</v>
+        <v>16.068</v>
       </c>
       <c r="O56" t="n">
-        <v>29.1290629148629</v>
+        <v>29.33200000000001</v>
       </c>
       <c r="P56" t="n">
-        <v>10.82751319018184</v>
+        <v>10.81381094527362</v>
       </c>
       <c r="Q56" t="n">
-        <v>7.371271428571432</v>
+        <v>7.175999999999995</v>
       </c>
       <c r="R56" t="n">
-        <v>14.81278253968254</v>
+        <v>14.948</v>
       </c>
       <c r="S56" t="n">
-        <v>4.646834778488494</v>
+        <v>4.651462686567154</v>
       </c>
       <c r="T56" t="n">
-        <v>1.948177533577535</v>
+        <v>1.976</v>
       </c>
       <c r="U56" t="n">
-        <v>7.825666666666672</v>
+        <v>7.812000000000006</v>
       </c>
       <c r="V56" t="n">
-        <v>1.647374233450352</v>
+        <v>1.62515422885572</v>
       </c>
       <c r="W56" t="n">
-        <v>0.3667174603174596</v>
+        <v>0.3879999999999999</v>
       </c>
       <c r="X56" t="n">
-        <v>3.407747700447698</v>
+        <v>3.276000000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.2632843836373683</v>
+        <v>0.2659502487562186</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.9517340548340544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>18.20112810155571</v>
+        <v>18.24202985074626</v>
       </c>
       <c r="K57" t="n">
-        <v>9.219999999999995</v>
+        <v>9.283999999999995</v>
       </c>
       <c r="L57" t="n">
-        <v>28.57597008177009</v>
+        <v>28.24799999999999</v>
       </c>
       <c r="M57" t="n">
-        <v>31.99986368098452</v>
+        <v>32.09802985074623</v>
       </c>
       <c r="N57" t="n">
-        <v>21.48549761904761</v>
+        <v>21.37600000000001</v>
       </c>
       <c r="O57" t="n">
-        <v>40.93651467791469</v>
+        <v>41.27999999999998</v>
       </c>
       <c r="P57" t="n">
-        <v>13.22533714759535</v>
+        <v>13.17860696517412</v>
       </c>
       <c r="Q57" t="n">
-        <v>9.199817460317457</v>
+        <v>9.18</v>
       </c>
       <c r="R57" t="n">
-        <v>17.79876666666667</v>
+        <v>17.536</v>
       </c>
       <c r="S57" t="n">
-        <v>5.332497204453916</v>
+        <v>5.323661691542283</v>
       </c>
       <c r="T57" t="n">
-        <v>2.499924867724868</v>
+        <v>2.492000000000001</v>
       </c>
       <c r="U57" t="n">
-        <v>8.465466666666671</v>
+        <v>8.764000000000006</v>
       </c>
       <c r="V57" t="n">
-        <v>1.758862354652902</v>
+        <v>1.753054726368157</v>
       </c>
       <c r="W57" t="n">
-        <v>0.2763630591630593</v>
+        <v>0.2759999999999999</v>
       </c>
       <c r="X57" t="n">
-        <v>3.893032027232027</v>
+        <v>3.863999999999999</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.2681499447208393</v>
+        <v>0.2683781094527353</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.9357485292485289</v>
+        <v>0.9719999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4167389165284681</v>
+        <v>0.498845771144278</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01322222222222222</v>
+        <v>0.02</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9943190476190475</v>
+        <v>1.14</v>
       </c>
       <c r="G58" t="n">
-        <v>1.081162628416359</v>
+        <v>1.071621890547263</v>
       </c>
       <c r="H58" t="n">
-        <v>0.192097739297739</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="I58" t="n">
-        <v>2.22067205017205</v>
+        <v>2.228000000000002</v>
       </c>
       <c r="J58" t="n">
-        <v>1.12750448561941</v>
+        <v>1.125572139303481</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2394910152903288</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="L58" t="n">
-        <v>2.244050880514967</v>
+        <v>2.268000000000002</v>
       </c>
       <c r="M58" t="n">
-        <v>1.115325090751092</v>
+        <v>1.126169154228855</v>
       </c>
       <c r="N58" t="n">
-        <v>0.205815079365079</v>
+        <v>0.2</v>
       </c>
       <c r="O58" t="n">
-        <v>2.295506807571512</v>
+        <v>2.42</v>
       </c>
       <c r="P58" t="n">
-        <v>1.022335568908703</v>
+        <v>1.017253731343283</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.2163912696650688</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="R58" t="n">
-        <v>2.117460317460318</v>
+        <v>2.092000000000001</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9300496689739224</v>
+        <v>0.9251542288557201</v>
       </c>
       <c r="T58" t="n">
-        <v>0.1943999999999995</v>
+        <v>0.172</v>
       </c>
       <c r="U58" t="n">
-        <v>1.799964285714285</v>
+        <v>1.856</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5936769633535798</v>
+        <v>0.5843980099502482</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>1.38466666666667</v>
+        <v>1.36</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.155572336729053</v>
+        <v>0.1496119402985074</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.6013333333333324</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>18.43101214023675</v>
+        <v>18.02324378109453</v>
       </c>
       <c r="K59" t="n">
-        <v>9.290200000000006</v>
+        <v>9.300000000000008</v>
       </c>
       <c r="L59" t="n">
-        <v>30.49687835497837</v>
+        <v>29.68800000000001</v>
       </c>
       <c r="M59" t="n">
-        <v>21.04101448313973</v>
+        <v>21.0172338308456</v>
       </c>
       <c r="N59" t="n">
-        <v>12.77904444444444</v>
+        <v>13.66799999999999</v>
       </c>
       <c r="O59" t="n">
-        <v>28.40147667147668</v>
+        <v>28.42400000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>12.3180924959507</v>
+        <v>12.95609950248756</v>
       </c>
       <c r="Q59" t="n">
-        <v>8.694467001952292</v>
+        <v>8.940000000000003</v>
       </c>
       <c r="R59" t="n">
-        <v>16.39294825729825</v>
+        <v>16.61599999999999</v>
       </c>
       <c r="S59" t="n">
-        <v>6.939912305351454</v>
+        <v>6.798109452736306</v>
       </c>
       <c r="T59" t="n">
-        <v>4.149798227698231</v>
+        <v>4.012</v>
       </c>
       <c r="U59" t="n">
-        <v>10.14048975468975</v>
+        <v>9.940000000000003</v>
       </c>
       <c r="V59" t="n">
-        <v>2.776421707906191</v>
+        <v>2.649492537313424</v>
       </c>
       <c r="W59" t="n">
-        <v>0.7568724867724859</v>
+        <v>0.6960000000000005</v>
       </c>
       <c r="X59" t="n">
-        <v>5.028650638960606</v>
+        <v>5.043999999999998</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.4350666106695947</v>
+        <v>0.4360398009950242</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.281422013057462</v>
+        <v>1.132</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3696655531864477</v>
+        <v>0.435800995024875</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01262222222222222</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8945412698412692</v>
+        <v>1.071999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6658810579138928</v>
+        <v>0.669154228855721</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02896825396825397</v>
+        <v>0.028</v>
       </c>
       <c r="I60" t="n">
-        <v>1.550704728604728</v>
+        <v>1.6</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6423197342214118</v>
+        <v>0.6547661691542273</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1.508417776169479</v>
+        <v>1.556</v>
       </c>
       <c r="M60" t="n">
-        <v>0.5700975835110156</v>
+        <v>0.5761592039800985</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.376911400799638</v>
+        <v>1.383999999999999</v>
       </c>
       <c r="P60" t="n">
-        <v>0.5263980099502481</v>
+        <v>0.5283781094527357</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>1.378133333333333</v>
+        <v>1.372</v>
       </c>
       <c r="S60" t="n">
-        <v>0.4436782752902146</v>
+        <v>0.4416517412935317</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>1.037513919413919</v>
+        <v>1.028</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3045521739546602</v>
+        <v>0.2985074626865655</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0.9011802789802785</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.06819260838663818</v>
+        <v>0.06326368159203971</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.3693333333333327</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5487,67 +5487,67 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>29.31515157043063</v>
+        <v>29.37584079601985</v>
       </c>
       <c r="H61" t="n">
-        <v>16.23344444444444</v>
+        <v>16.064</v>
       </c>
       <c r="I61" t="n">
-        <v>42.32703008658009</v>
+        <v>42.46800000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>22.66587055360181</v>
+        <v>23.19217910447747</v>
       </c>
       <c r="K61" t="n">
-        <v>16.07541428571429</v>
+        <v>16.3</v>
       </c>
       <c r="L61" t="n">
-        <v>29.76943567913567</v>
+        <v>29.65599999999998</v>
       </c>
       <c r="M61" t="n">
-        <v>10.82776642975598</v>
+        <v>10.81876616915424</v>
       </c>
       <c r="N61" t="n">
-        <v>6.916217948717949</v>
+        <v>6.951999999999995</v>
       </c>
       <c r="O61" t="n">
-        <v>14.72700476190475</v>
+        <v>14.844</v>
       </c>
       <c r="P61" t="n">
-        <v>4.975817374961588</v>
+        <v>4.887999999999982</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.05787032967033</v>
+        <v>2.008</v>
       </c>
       <c r="R61" t="n">
-        <v>8.25300404040404</v>
+        <v>8.307999999999995</v>
       </c>
       <c r="S61" t="n">
-        <v>2.147385899865741</v>
+        <v>2.177014925373124</v>
       </c>
       <c r="T61" t="n">
-        <v>0.3916451280298646</v>
+        <v>0.4119999999999999</v>
       </c>
       <c r="U61" t="n">
-        <v>4.855868398268399</v>
+        <v>4.852000000000002</v>
       </c>
       <c r="V61" t="n">
-        <v>0.7927448616634444</v>
+        <v>0.8104278606965171</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>2.145956758056756</v>
+        <v>2.192000000000002</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.1138148704529301</v>
+        <v>0.1168756218905472</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.5099610516189466</v>
+        <v>0.5400000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>6.610467661691533</v>
+        <v>6.841572139303472</v>
       </c>
       <c r="H62" t="n">
-        <v>2.790666666666674</v>
+        <v>2.919999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>12.06000000000001</v>
+        <v>12.25200000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>22.43627620985965</v>
+        <v>23.2272835820894</v>
       </c>
       <c r="K62" t="n">
-        <v>12.74306507936508</v>
+        <v>12.916</v>
       </c>
       <c r="L62" t="n">
-        <v>32.75755329485328</v>
+        <v>34.312</v>
       </c>
       <c r="M62" t="n">
-        <v>16.78482745794835</v>
+        <v>17.13100497512437</v>
       </c>
       <c r="N62" t="n">
-        <v>11.82878571428572</v>
+        <v>11.948</v>
       </c>
       <c r="O62" t="n">
-        <v>22.22465714285713</v>
+        <v>22.192</v>
       </c>
       <c r="P62" t="n">
-        <v>9.805232999971643</v>
+        <v>9.646547263681587</v>
       </c>
       <c r="Q62" t="n">
-        <v>6.032500227060523</v>
+        <v>6.267999999999995</v>
       </c>
       <c r="R62" t="n">
-        <v>13.6610261072261</v>
+        <v>13.2</v>
       </c>
       <c r="S62" t="n">
-        <v>5.068460222696035</v>
+        <v>4.947880597014923</v>
       </c>
       <c r="T62" t="n">
-        <v>2.445233867983865</v>
+        <v>2.248000000000002</v>
       </c>
       <c r="U62" t="n">
-        <v>7.988051381951383</v>
+        <v>7.776000000000005</v>
       </c>
       <c r="V62" t="n">
-        <v>1.947606802723716</v>
+        <v>1.918527363184077</v>
       </c>
       <c r="W62" t="n">
-        <v>0.5690444444444451</v>
+        <v>0.4159999999999999</v>
       </c>
       <c r="X62" t="n">
-        <v>3.788941726791728</v>
+        <v>3.712000000000001</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.3428038946680731</v>
+        <v>0.3214328358208946</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.9424334424834423</v>
+        <v>0.9840000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>28.2298905472636</v>
+        <v>28.63410945273628</v>
       </c>
       <c r="E63" t="n">
-        <v>16.268</v>
+        <v>16.57199999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>42.51733333333324</v>
+        <v>42.95600000000004</v>
       </c>
       <c r="G63" t="n">
-        <v>22.76651409618562</v>
+        <v>23.02768159203966</v>
       </c>
       <c r="H63" t="n">
-        <v>16.10253333333332</v>
+        <v>16.39199999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>29.82357142857145</v>
+        <v>30.00000000000002</v>
       </c>
       <c r="J63" t="n">
-        <v>11.32658623548921</v>
+        <v>10.98796019900497</v>
       </c>
       <c r="K63" t="n">
-        <v>7.12506666666667</v>
+        <v>7.004000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>15.28069206349207</v>
+        <v>15.152</v>
       </c>
       <c r="M63" t="n">
-        <v>5.279734660033158</v>
+        <v>5.300915422885558</v>
       </c>
       <c r="N63" t="n">
-        <v>2.367295238095236</v>
+        <v>2.124000000000001</v>
       </c>
       <c r="O63" t="n">
-        <v>8.948283028083029</v>
+        <v>9.115999999999996</v>
       </c>
       <c r="P63" t="n">
-        <v>2.535553826107547</v>
+        <v>2.56965174129352</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.7731500832500831</v>
+        <v>0.6400000000000005</v>
       </c>
       <c r="R63" t="n">
-        <v>5.023342857142856</v>
+        <v>5.151999999999996</v>
       </c>
       <c r="S63" t="n">
-        <v>1.226041483999692</v>
+        <v>1.15299502487562</v>
       </c>
       <c r="T63" t="n">
-        <v>0.06172393581216043</v>
+        <v>0.024</v>
       </c>
       <c r="U63" t="n">
-        <v>3.082358741258742</v>
+        <v>2.904</v>
       </c>
       <c r="V63" t="n">
-        <v>0.448471940161638</v>
+        <v>0.4367960199004965</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>1.527470629370629</v>
+        <v>1.572</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.07381500829187386</v>
+        <v>0.07223880597014912</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.4374407407407405</v>
+        <v>0.4079999999999998</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3687939113954029</v>
+        <v>0.4461492537313426</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001688888888888889</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8955412698412692</v>
+        <v>1.039999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6658810579138928</v>
+        <v>0.6715422885572135</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02289417989417989</v>
+        <v>0.028</v>
       </c>
       <c r="I64" t="n">
-        <v>1.550704728604728</v>
+        <v>1.6</v>
       </c>
       <c r="J64" t="n">
-        <v>0.6410601985663539</v>
+        <v>0.6498308457711428</v>
       </c>
       <c r="K64" t="n">
-        <v>0.008000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1.485725784979842</v>
+        <v>1.524</v>
       </c>
       <c r="M64" t="n">
-        <v>0.5778415778251592</v>
+        <v>0.5801393034825861</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1.358466956355193</v>
+        <v>1.352</v>
       </c>
       <c r="P64" t="n">
-        <v>0.5245572139303474</v>
+        <v>0.5271044776119396</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1.363795670995671</v>
+        <v>1.372</v>
       </c>
       <c r="S64" t="n">
-        <v>0.4394643449419559</v>
+        <v>0.4373532338308451</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1.062695078834209</v>
+        <v>1.028</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3046848439380767</v>
+        <v>0.298029850746267</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0.9047358345358341</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.07522067045723765</v>
+        <v>0.06660696517412928</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.3693333333333327</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>37.67194930111338</v>
+        <v>37.19882587064662</v>
       </c>
       <c r="N65" t="n">
-        <v>22.09763816738816</v>
+        <v>22.14400000000002</v>
       </c>
       <c r="O65" t="n">
-        <v>53.02594230214231</v>
+        <v>52.71600000000002</v>
       </c>
       <c r="P65" t="n">
-        <v>21.19499389057593</v>
+        <v>20.82491542288554</v>
       </c>
       <c r="Q65" t="n">
-        <v>14.85357777777777</v>
+        <v>14.75999999999999</v>
       </c>
       <c r="R65" t="n">
-        <v>26.62184603174603</v>
+        <v>27.00000000000001</v>
       </c>
       <c r="S65" t="n">
-        <v>7.997728317646965</v>
+        <v>7.965870646766164</v>
       </c>
       <c r="T65" t="n">
-        <v>4.543543530543534</v>
+        <v>4.607999999999999</v>
       </c>
       <c r="U65" t="n">
-        <v>11.6137</v>
+        <v>11.64799999999999</v>
       </c>
       <c r="V65" t="n">
-        <v>2.615289865248065</v>
+        <v>2.607044776119393</v>
       </c>
       <c r="W65" t="n">
-        <v>0.8323370370370355</v>
+        <v>0.8479999999999996</v>
       </c>
       <c r="X65" t="n">
-        <v>4.698648388648387</v>
+        <v>4.820000000000001</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.3897672510463543</v>
+        <v>0.3905870646766156</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.244807503607502</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>3.568434494195678</v>
+        <v>3.012437810945266</v>
       </c>
       <c r="E66" t="n">
-        <v>1.492377777777776</v>
+        <v>1.136000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>6.883533333333327</v>
+        <v>5.452000000000002</v>
       </c>
       <c r="G66" t="n">
-        <v>13.17061260364842</v>
+        <v>13.18332338308457</v>
       </c>
       <c r="H66" t="n">
-        <v>6.00863809523809</v>
+        <v>5.900000000000005</v>
       </c>
       <c r="I66" t="n">
-        <v>21.30033333333334</v>
+        <v>20.93200000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>13.31529803863495</v>
+        <v>13.40521393034825</v>
       </c>
       <c r="K66" t="n">
-        <v>7.548131024531028</v>
+        <v>7.720000000000003</v>
       </c>
       <c r="L66" t="n">
-        <v>18.84404126984125</v>
+        <v>18.88400000000001</v>
       </c>
       <c r="M66" t="n">
-        <v>10.20852293295427</v>
+        <v>10.39570149253731</v>
       </c>
       <c r="N66" t="n">
-        <v>6.257204242979245</v>
+        <v>6.547999999999999</v>
       </c>
       <c r="O66" t="n">
-        <v>14.08417354497355</v>
+        <v>14.33599999999999</v>
       </c>
       <c r="P66" t="n">
-        <v>6.549384357137988</v>
+        <v>7.023044776119381</v>
       </c>
       <c r="Q66" t="n">
-        <v>4.353296605149237</v>
+        <v>4.575999999999997</v>
       </c>
       <c r="R66" t="n">
-        <v>9.273904484404483</v>
+        <v>9.952</v>
       </c>
       <c r="S66" t="n">
-        <v>4.417969406137868</v>
+        <v>4.435621890547254</v>
       </c>
       <c r="T66" t="n">
-        <v>2.553158958961001</v>
+        <v>2.400000000000002</v>
       </c>
       <c r="U66" t="n">
-        <v>6.799168057398398</v>
+        <v>6.936000000000002</v>
       </c>
       <c r="V66" t="n">
-        <v>2.143212241709572</v>
+        <v>2.102388059701482</v>
       </c>
       <c r="W66" t="n">
-        <v>0.8518555278055282</v>
+        <v>0.8119999999999997</v>
       </c>
       <c r="X66" t="n">
-        <v>3.668525909569263</v>
+        <v>3.651999999999998</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.416664675376</v>
+        <v>0.4203582089552232</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.095642217861259</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="67">
@@ -5976,76 +5976,76 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.0570348258706464</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="G67" t="n">
-        <v>9.008696517412924</v>
+        <v>8.817134328358199</v>
       </c>
       <c r="H67" t="n">
-        <v>4.31268095238095</v>
+        <v>4.251999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>15.116</v>
+        <v>14.924</v>
       </c>
       <c r="J67" t="n">
-        <v>13.56052282344106</v>
+        <v>13.77038805970148</v>
       </c>
       <c r="K67" t="n">
-        <v>7.566950072150072</v>
+        <v>7.287999999999996</v>
       </c>
       <c r="L67" t="n">
-        <v>20.91121227847373</v>
+        <v>20.72400000000001</v>
       </c>
       <c r="M67" t="n">
-        <v>11.93839027876489</v>
+        <v>11.70551243781093</v>
       </c>
       <c r="N67" t="n">
-        <v>7.015436538461542</v>
+        <v>6.684000000000002</v>
       </c>
       <c r="O67" t="n">
-        <v>16.76840768120769</v>
+        <v>16.796</v>
       </c>
       <c r="P67" t="n">
-        <v>8.106728502895747</v>
+        <v>8.390587064676607</v>
       </c>
       <c r="Q67" t="n">
-        <v>5.161353728091649</v>
+        <v>5.223999999999995</v>
       </c>
       <c r="R67" t="n">
-        <v>11.34721095571095</v>
+        <v>11.692</v>
       </c>
       <c r="S67" t="n">
-        <v>5.175709182116453</v>
+        <v>5.35174129353233</v>
       </c>
       <c r="T67" t="n">
-        <v>3.078228002335927</v>
+        <v>3.223999999999999</v>
       </c>
       <c r="U67" t="n">
-        <v>7.489713944844283</v>
+        <v>7.956</v>
       </c>
       <c r="V67" t="n">
-        <v>2.662287727854826</v>
+        <v>2.691462686567152</v>
       </c>
       <c r="W67" t="n">
-        <v>1.065197166754813</v>
+        <v>1.172000000000001</v>
       </c>
       <c r="X67" t="n">
-        <v>4.42880593778241</v>
+        <v>4.468</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.539764209225285</v>
+        <v>0.5524776119402971</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.253786378776596</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6059,76 +6059,76 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.00825870646766168</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3931854703892006</v>
+        <v>0.4576517412935308</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0442</v>
+        <v>0.012</v>
       </c>
       <c r="I68" t="n">
-        <v>1.116311499611499</v>
+        <v>1.240000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9878157777821944</v>
+        <v>1.009313432835819</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2152047904041039</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="L68" t="n">
-        <v>2.192188474402561</v>
+        <v>2.204000000000002</v>
       </c>
       <c r="M68" t="n">
-        <v>1.108125416828941</v>
+        <v>1.115343283582088</v>
       </c>
       <c r="N68" t="n">
-        <v>0.3405753968253963</v>
+        <v>0.3719999999999999</v>
       </c>
       <c r="O68" t="n">
-        <v>2.187986317386313</v>
+        <v>2.216000000000002</v>
       </c>
       <c r="P68" t="n">
-        <v>1.073438548543771</v>
+        <v>1.070487562189055</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.3164507621033932</v>
+        <v>0.212</v>
       </c>
       <c r="R68" t="n">
-        <v>2.204746031746033</v>
+        <v>2.204000000000002</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9242409860178512</v>
+        <v>0.9454527363184073</v>
       </c>
       <c r="T68" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="U68" t="n">
-        <v>1.914648717948718</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6174051936086756</v>
+        <v>0.6170348258706464</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>1.361619047619049</v>
+        <v>1.412</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.1690020216378424</v>
+        <v>0.1677611940298507</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.5999999999999991</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="69">
@@ -6151,67 +6151,67 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>22.59231840796011</v>
+        <v>22.5839800995024</v>
       </c>
       <c r="H69" t="n">
-        <v>12.22666666666669</v>
+        <v>12.232</v>
       </c>
       <c r="I69" t="n">
-        <v>32.883</v>
+        <v>32.872</v>
       </c>
       <c r="J69" t="n">
-        <v>33.93964196502466</v>
+        <v>32.22272636815909</v>
       </c>
       <c r="K69" t="n">
-        <v>23.47803473135052</v>
+        <v>22.70800000000002</v>
       </c>
       <c r="L69" t="n">
-        <v>41.60055999002994</v>
+        <v>40.97999999999999</v>
       </c>
       <c r="M69" t="n">
-        <v>12.22876683250414</v>
+        <v>12.23303482587064</v>
       </c>
       <c r="N69" t="n">
-        <v>8.011510317460312</v>
+        <v>8.035999999999994</v>
       </c>
       <c r="O69" t="n">
-        <v>16.268</v>
+        <v>16.31200000000001</v>
       </c>
       <c r="P69" t="n">
-        <v>4.964519469032894</v>
+        <v>4.934288557213923</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.030449567099566</v>
+        <v>2.064000000000001</v>
       </c>
       <c r="R69" t="n">
-        <v>8.465553968253964</v>
+        <v>8.419999999999993</v>
       </c>
       <c r="S69" t="n">
-        <v>2.045829673477427</v>
+        <v>2.01112437810945</v>
       </c>
       <c r="T69" t="n">
-        <v>0.3857099715099711</v>
+        <v>0.3879999999999999</v>
       </c>
       <c r="U69" t="n">
-        <v>4.634812942612942</v>
+        <v>4.692000000000004</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6713215975984365</v>
+        <v>0.6627064676616901</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0004814814814814815</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>1.905449165649167</v>
+        <v>1.883999999999999</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.1031649011705177</v>
+        <v>0.1035820895522388</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.5578625966625962</v>
+        <v>0.5600000000000004</v>
       </c>
     </row>
     <row r="70">
@@ -6243,58 +6243,58 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9674612685821634</v>
+        <v>0.9177711442786065</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1469036143871384</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>1.980253240876772</v>
+        <v>1.863999999999999</v>
       </c>
       <c r="M70" t="n">
-        <v>1.093097982948479</v>
+        <v>1.079900497512437</v>
       </c>
       <c r="N70" t="n">
-        <v>0.2031038461538458</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O70" t="n">
-        <v>2.194635901571195</v>
+        <v>2.076000000000001</v>
       </c>
       <c r="P70" t="n">
-        <v>1.075958524236794</v>
+        <v>1.064517412935323</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.2244671526056576</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="R70" t="n">
-        <v>2.130916483516484</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="S70" t="n">
-        <v>1.032123244886676</v>
+        <v>1.034089552238804</v>
       </c>
       <c r="T70" t="n">
-        <v>0.2139999999999995</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="U70" t="n">
-        <v>2.030607792207793</v>
+        <v>2.012</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6697489371325186</v>
+        <v>0.6594427860696511</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>1.544555555555556</v>
+        <v>1.424</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.1776751376594654</v>
+        <v>0.1642985074626863</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.6064444444444437</v>
+        <v>0.4799999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6326,58 +6326,58 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.02704477611940296</v>
       </c>
       <c r="K71" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="L71" t="n">
-        <v>0.01733333333333333</v>
+        <v>0.052</v>
       </c>
       <c r="M71" t="n">
-        <v>3.729830845771141</v>
+        <v>3.691024875621888</v>
       </c>
       <c r="N71" t="n">
-        <v>1.622499999999997</v>
+        <v>1.587999999999999</v>
       </c>
       <c r="O71" t="n">
-        <v>6.535999999999992</v>
+        <v>6.531999999999997</v>
       </c>
       <c r="P71" t="n">
-        <v>6.115290215588718</v>
+        <v>6.070149253731342</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.742900000000002</v>
+        <v>2.759999999999999</v>
       </c>
       <c r="R71" t="n">
-        <v>10.31346666666667</v>
+        <v>10.45200000000001</v>
       </c>
       <c r="S71" t="n">
-        <v>5.928822553897171</v>
+        <v>5.942646766169145</v>
       </c>
       <c r="T71" t="n">
-        <v>2.752788888888894</v>
+        <v>2.824</v>
       </c>
       <c r="U71" t="n">
-        <v>9.574666666666671</v>
+        <v>9.576000000000004</v>
       </c>
       <c r="V71" t="n">
-        <v>3.877279443331675</v>
+        <v>3.843422885572132</v>
       </c>
       <c r="W71" t="n">
-        <v>1.60373636363636</v>
+        <v>1.599999999999999</v>
       </c>
       <c r="X71" t="n">
-        <v>6.103211688311696</v>
+        <v>6.087999999999998</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.901449808842345</v>
+        <v>0.8877014925373126</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.1257837301587301</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.947678364337188</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="72">
@@ -6400,67 +6400,67 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.0509452736318408</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="J72" t="n">
-        <v>3.733877943615257</v>
+        <v>3.637134328358206</v>
       </c>
       <c r="K72" t="n">
-        <v>1.582</v>
+        <v>1.544</v>
       </c>
       <c r="L72" t="n">
-        <v>6.812580952380952</v>
+        <v>6.612000000000004</v>
       </c>
       <c r="M72" t="n">
-        <v>6.367182847666416</v>
+        <v>6.3144278606965</v>
       </c>
       <c r="N72" t="n">
-        <v>2.760177777777781</v>
+        <v>2.739999999999999</v>
       </c>
       <c r="O72" t="n">
-        <v>10.83882413468884</v>
+        <v>10.944</v>
       </c>
       <c r="P72" t="n">
-        <v>6.323293532338296</v>
+        <v>6.301592039800982</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.956677777777779</v>
+        <v>2.883999999999999</v>
       </c>
       <c r="R72" t="n">
-        <v>10.2376</v>
+        <v>10.148</v>
       </c>
       <c r="S72" t="n">
-        <v>5.381967811734977</v>
+        <v>5.321592039800991</v>
       </c>
       <c r="T72" t="n">
-        <v>2.634041316091318</v>
+        <v>2.643999999999998</v>
       </c>
       <c r="U72" t="n">
-        <v>8.620333333333328</v>
+        <v>8.451999999999993</v>
       </c>
       <c r="V72" t="n">
-        <v>3.385032358150204</v>
+        <v>3.141592039800987</v>
       </c>
       <c r="W72" t="n">
-        <v>1.40266675273197</v>
+        <v>1.328000000000001</v>
       </c>
       <c r="X72" t="n">
-        <v>5.501224546720783</v>
+        <v>5.280000000000004</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.7770891111104343</v>
+        <v>0.7617711442786061</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.08161666666666671</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.678758006333066</v>
+        <v>1.611999999999999</v>
       </c>
     </row>
   </sheetData>
